--- a/lista-inscritos-dnj-2025-diocese-de-sao-jose-dos-pinhais-tratado.xlsx
+++ b/lista-inscritos-dnj-2025-diocese-de-sao-jose-dos-pinhais-tratado.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>Situação da Inscrição</t>
         </is>
       </c>
     </row>

--- a/lista-inscritos-dnj-2025-diocese-de-sao-jose-dos-pinhais-tratado.xlsx
+++ b/lista-inscritos-dnj-2025-diocese-de-sao-jose-dos-pinhais-tratado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1511"/>
+  <dimension ref="A1:F1782"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Nossa Senhora das Graças - Piên</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -7746,12 +7746,12 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>jmc</t>
+          <t>jovens da imaculada</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -12991,7 +12991,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Nossa Senhora das Graças - Piên</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -13021,7 +13021,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Nossa Senhora das Graças - Piên</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -13051,7 +13051,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Nossa Senhora das Graças - Piên</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -13111,7 +13111,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Nossa Senhora das Graças - Piên</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -13171,7 +13171,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Nossa Senhora das Graças - Piên</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -13261,7 +13261,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Nossa Senhora das Graças - Piên</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -13291,7 +13291,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Nossa Senhora das Graças - Piên</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -13651,7 +13651,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Nossa Senhora das Graças - Piên</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -15301,7 +15301,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Nossa Senhora das Graças - Piên</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
@@ -16702,7 +16702,7 @@
         </is>
       </c>
       <c r="B543" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         </is>
       </c>
       <c r="B557" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C557" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Nossa Senhora das Graças - Piên</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -19762,7 +19762,7 @@
         </is>
       </c>
       <c r="B645" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C645" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
       </c>
       <c r="F705" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -23041,7 +23041,7 @@
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Nossa Senhora das Graças - Piên</t>
         </is>
       </c>
       <c r="E754" t="inlineStr">
@@ -25271,7 +25271,7 @@
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -25541,7 +25541,7 @@
       </c>
       <c r="F837" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -27682,7 +27682,7 @@
         </is>
       </c>
       <c r="B909" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C909" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
       </c>
       <c r="D911" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Nossa Senhora das Graças - Piên</t>
         </is>
       </c>
       <c r="E911" t="inlineStr">
@@ -27761,7 +27761,7 @@
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -28021,7 +28021,7 @@
       </c>
       <c r="D920" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Nossa Senhora das Graças - Piên</t>
         </is>
       </c>
       <c r="E920" t="inlineStr">
@@ -28031,7 +28031,7 @@
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -28271,7 +28271,7 @@
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -29482,7 +29482,7 @@
         </is>
       </c>
       <c r="B969" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C969" t="inlineStr">
         <is>
@@ -32032,7 +32032,7 @@
         </is>
       </c>
       <c r="B1054" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1054" t="inlineStr">
         <is>
@@ -32311,7 +32311,7 @@
       </c>
       <c r="D1063" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Nossa Senhora das Graças - Piên</t>
         </is>
       </c>
       <c r="E1063" t="inlineStr">
@@ -32441,7 +32441,7 @@
       </c>
       <c r="F1067" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -32452,7 +32452,7 @@
         </is>
       </c>
       <c r="B1068" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1068" t="inlineStr">
         <is>
@@ -33691,7 +33691,7 @@
       </c>
       <c r="D1109" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Nossa Senhora das Graças - Piên</t>
         </is>
       </c>
       <c r="E1109" t="inlineStr">
@@ -34681,7 +34681,7 @@
       </c>
       <c r="D1142" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Nossa Senhora das Graças - Piên</t>
         </is>
       </c>
       <c r="E1142" t="inlineStr">
@@ -34711,7 +34711,7 @@
       </c>
       <c r="D1143" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Nossa Senhora das Graças - Piên</t>
         </is>
       </c>
       <c r="E1143" t="inlineStr">
@@ -34991,7 +34991,7 @@
       </c>
       <c r="F1152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -37991,7 +37991,7 @@
       </c>
       <c r="F1252" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -38041,7 +38041,7 @@
       </c>
       <c r="D1254" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Nossa Senhora das Graças - Piên</t>
         </is>
       </c>
       <c r="E1254" t="inlineStr">
@@ -41182,7 +41182,7 @@
         </is>
       </c>
       <c r="B1359" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1359" t="inlineStr">
         <is>
@@ -41711,7 +41711,7 @@
       </c>
       <c r="F1376" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -41861,7 +41861,7 @@
       </c>
       <c r="F1381" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -41921,7 +41921,7 @@
       </c>
       <c r="F1383" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -41951,7 +41951,7 @@
       </c>
       <c r="F1384" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -41981,7 +41981,7 @@
       </c>
       <c r="F1385" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -42041,7 +42041,7 @@
       </c>
       <c r="F1387" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -42101,7 +42101,7 @@
       </c>
       <c r="F1389" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -42131,7 +42131,7 @@
       </c>
       <c r="F1390" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -42161,7 +42161,7 @@
       </c>
       <c r="F1391" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -42221,7 +42221,7 @@
       </c>
       <c r="F1393" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -42251,7 +42251,7 @@
       </c>
       <c r="F1394" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -42311,7 +42311,7 @@
       </c>
       <c r="F1396" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -42341,7 +42341,7 @@
       </c>
       <c r="F1397" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -42431,7 +42431,7 @@
       </c>
       <c r="F1400" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -42461,7 +42461,7 @@
       </c>
       <c r="F1401" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -42491,7 +42491,7 @@
       </c>
       <c r="F1402" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -42581,7 +42581,7 @@
       </c>
       <c r="F1405" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -42611,7 +42611,7 @@
       </c>
       <c r="F1406" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -42641,7 +42641,7 @@
       </c>
       <c r="F1407" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -42671,7 +42671,7 @@
       </c>
       <c r="F1408" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -43831,7 +43831,7 @@
       </c>
       <c r="D1447" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Nossa Senhora das Graças - Piên</t>
         </is>
       </c>
       <c r="E1447" t="inlineStr">
@@ -44171,7 +44171,7 @@
       </c>
       <c r="F1458" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -44801,7 +44801,7 @@
       </c>
       <c r="F1479" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -44831,7 +44831,7 @@
       </c>
       <c r="F1480" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -44861,7 +44861,7 @@
       </c>
       <c r="F1481" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -44891,7 +44891,7 @@
       </c>
       <c r="F1482" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -44921,7 +44921,7 @@
       </c>
       <c r="F1483" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -44951,7 +44951,7 @@
       </c>
       <c r="F1484" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -44981,7 +44981,7 @@
       </c>
       <c r="F1485" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -45041,7 +45041,7 @@
       </c>
       <c r="F1487" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -45071,7 +45071,7 @@
       </c>
       <c r="F1488" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -45101,7 +45101,7 @@
       </c>
       <c r="F1489" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -45131,7 +45131,7 @@
       </c>
       <c r="F1490" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -45161,7 +45161,7 @@
       </c>
       <c r="F1491" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -45191,7 +45191,7 @@
       </c>
       <c r="F1492" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -45221,7 +45221,7 @@
       </c>
       <c r="F1493" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -45251,7 +45251,7 @@
       </c>
       <c r="F1494" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -45281,7 +45281,7 @@
       </c>
       <c r="F1495" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -45311,7 +45311,7 @@
       </c>
       <c r="F1496" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -45341,7 +45341,7 @@
       </c>
       <c r="F1497" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -45371,7 +45371,7 @@
       </c>
       <c r="F1498" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -45551,7 +45551,7 @@
       </c>
       <c r="F1504" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -45761,7 +45761,8137 @@
       </c>
       <c r="F1511" t="inlineStr">
         <is>
-          <t>Confirmada</t>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>ISABELLA KAROLINE DE BASTOS</t>
+        </is>
+      </c>
+      <c r="B1512" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1512" t="inlineStr">
+        <is>
+          <t>Quitandinha</t>
+        </is>
+      </c>
+      <c r="D1512" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus - Mandirituba</t>
+        </is>
+      </c>
+      <c r="E1512" t="inlineStr">
+        <is>
+          <t>TLC</t>
+        </is>
+      </c>
+      <c r="F1512" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>ISABELLY MARIA BREY</t>
+        </is>
+      </c>
+      <c r="B1513" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1513" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="D1513" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1513" t="inlineStr">
+        <is>
+          <t>DNJ</t>
+        </is>
+      </c>
+      <c r="F1513" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HEVILIN LOURENÇO DE OLIVEIRA </t>
+        </is>
+      </c>
+      <c r="B1514" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1514" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1514" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1514" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LEONARDO DE MORAES DINIZ </t>
+        </is>
+      </c>
+      <c r="B1515" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1515" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1515" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1515" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1515" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>CAUENY FRAGOSO</t>
+        </is>
+      </c>
+      <c r="B1516" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1516" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1516" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1516" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coordenação </t>
+        </is>
+      </c>
+      <c r="F1516" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>ALICE MACIEL STANISZEWSKI</t>
+        </is>
+      </c>
+      <c r="B1517" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1517" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1517" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1517" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1517" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALAN MICHEL ROMPAVA DE ANDRADE </t>
+        </is>
+      </c>
+      <c r="B1518" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1518" t="inlineStr">
+        <is>
+          <t>Quitandinha</t>
+        </is>
+      </c>
+      <c r="D1518" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus da Cana Verde - Quitandinha</t>
+        </is>
+      </c>
+      <c r="E1518" t="inlineStr">
+        <is>
+          <t>Juc- TLC- Mini TLC-chama Viva</t>
+        </is>
+      </c>
+      <c r="F1518" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANA LAURA SOBOTA </t>
+        </is>
+      </c>
+      <c r="B1519" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1519" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1519" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1519" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1519" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANDRÉ KUSMA </t>
+        </is>
+      </c>
+      <c r="B1520" t="n">
+        <v>27</v>
+      </c>
+      <c r="C1520" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1520" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1520" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1520" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARTUR VINICIUS DA SILVA MARQUES </t>
+        </is>
+      </c>
+      <c r="B1521" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1521" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1521" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1521" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1521" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>BEATRIZ LETICIA PATECKI</t>
+        </is>
+      </c>
+      <c r="B1522" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1522" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1522" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1522" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1522" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>CAUANE APARECIDA  CAROLESKI</t>
+        </is>
+      </c>
+      <c r="B1523" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1523" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1523" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1523" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1523" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DANIEL COLAÇO GOMES </t>
+        </is>
+      </c>
+      <c r="B1524" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1524" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1524" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1524" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1524" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAVI AUGUSTO DE SOUZA CORDEIRO </t>
+        </is>
+      </c>
+      <c r="B1525" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1525" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1525" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1525" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1525" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>EDUARDA KAVA COLAÇO</t>
+        </is>
+      </c>
+      <c r="B1526" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1526" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1526" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1526" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1526" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ELOISA MARIA FERNANDES </t>
+        </is>
+      </c>
+      <c r="B1527" t="n">
+        <v>32</v>
+      </c>
+      <c r="C1527" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1527" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1527" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1527" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>EMANUELA STARON</t>
+        </is>
+      </c>
+      <c r="B1528" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1528" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1528" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1528" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1528" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>BEATRIZ W. FIGURA</t>
+        </is>
+      </c>
+      <c r="B1529" t="n">
+        <v>26</v>
+      </c>
+      <c r="C1529" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1529" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1529" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1529" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>HELEN VERNICK</t>
+        </is>
+      </c>
+      <c r="B1530" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1530" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1530" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1530" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>GUILHERME BALBINO COLAÇO</t>
+        </is>
+      </c>
+      <c r="B1531" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1531" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1531" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1531" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1531" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>GIOVANA ALYDES BAUMEL</t>
+        </is>
+      </c>
+      <c r="B1532" t="n">
+        <v>32</v>
+      </c>
+      <c r="C1532" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1532" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1532" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1532" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SARAH O. MARQUES </t>
+        </is>
+      </c>
+      <c r="B1533" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1533" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1533" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1533" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1533" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ISABELLA DE SOUZA DA SILVA </t>
+        </is>
+      </c>
+      <c r="B1534" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1534" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1534" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1534" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1534" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JULIA EDUARDA DA SILVEIRA </t>
+        </is>
+      </c>
+      <c r="B1535" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1535" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1535" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1535" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1535" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KARINE FILA DE OLIVEIRA </t>
+        </is>
+      </c>
+      <c r="B1536" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1536" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1536" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1536" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1536" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LARIELI LEANDRA BOÇOEN DOS REIS </t>
+        </is>
+      </c>
+      <c r="B1537" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1537" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1537" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1537" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1537" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LAURA BEATRIZ FLORES DA CUNHA </t>
+        </is>
+      </c>
+      <c r="B1538" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1538" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1538" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1538" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1538" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>GUSTAVO CORDEIRO LAURINDO</t>
+        </is>
+      </c>
+      <c r="B1539" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1539" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1539" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1539" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1539" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LEONARDO SANTANA ALVES DA SILVA </t>
+        </is>
+      </c>
+      <c r="B1540" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1540" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1540" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1540" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1540" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LETICIA KOVALSKI BATISTA </t>
+        </is>
+      </c>
+      <c r="B1541" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1541" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1541" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1541" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1541" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>ISABELLY BATISTA RODRIGUES</t>
+        </is>
+      </c>
+      <c r="B1542" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1542" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1542" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1542" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1542" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUCAS PEDRO BOÇOEN </t>
+        </is>
+      </c>
+      <c r="B1543" t="n">
+        <v>31</v>
+      </c>
+      <c r="C1543" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1543" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1543" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1543" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t>MARILUCIA PICANÇO PAES</t>
+        </is>
+      </c>
+      <c r="B1544" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1544" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1544" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida (Guatupê) - SJP</t>
+        </is>
+      </c>
+      <c r="E1544" t="inlineStr">
+        <is>
+          <t>GDM - Geração de Maria</t>
+        </is>
+      </c>
+      <c r="F1544" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARIA LUISA SEVERIANO </t>
+        </is>
+      </c>
+      <c r="B1545" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1545" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1545" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1545" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1545" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t>MILLENA SOBOTA BUDZIAK</t>
+        </is>
+      </c>
+      <c r="B1546" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1546" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1546" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VINICIUS CAVALIM SCHINDA </t>
+        </is>
+      </c>
+      <c r="B1547" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1547" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1547" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1547" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1547" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ELOISA HELENA PATLA PAVLIK </t>
+        </is>
+      </c>
+      <c r="B1548" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1548" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1548" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1548" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1548" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MONICA PATLA PAVILIK </t>
+        </is>
+      </c>
+      <c r="B1549" t="n">
+        <v>53</v>
+      </c>
+      <c r="C1549" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1549" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1549" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1549" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>NICOLAS KOVALSKI DE CARVALHO</t>
+        </is>
+      </c>
+      <c r="B1550" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1550" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1550" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1550" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1550" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PAULO CEZAR VERNICK </t>
+        </is>
+      </c>
+      <c r="B1551" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1551" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1551" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1551" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1551" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JULIA CAVALIM DOS SANTOS </t>
+        </is>
+      </c>
+      <c r="B1552" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1552" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1552" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1552" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1552" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLEVERSON MARTINS </t>
+        </is>
+      </c>
+      <c r="B1553" t="n">
+        <v>25</v>
+      </c>
+      <c r="C1553" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1553" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1553" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1553" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ISABELLA BRUNO DOS SANTOS </t>
+        </is>
+      </c>
+      <c r="B1554" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1554" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1554" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1554" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1554" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>KAUÃ VINICIUS BORA PINHEIRO</t>
+        </is>
+      </c>
+      <c r="B1555" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1555" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1555" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1555" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1555" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>GUSTAVO DE LIMA ALVES</t>
+        </is>
+      </c>
+      <c r="B1556" t="n">
+        <v>25</v>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1556" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1556" t="inlineStr">
+        <is>
+          <t>DOM DE DEUS</t>
+        </is>
+      </c>
+      <c r="F1556" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>VITÓRIA KAROLINA JACOBS</t>
+        </is>
+      </c>
+      <c r="B1557" t="n">
+        <v>25</v>
+      </c>
+      <c r="C1557" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1557" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1557" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1557" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>ANY ELISE PETERS</t>
+        </is>
+      </c>
+      <c r="B1558" t="n">
+        <v>22</v>
+      </c>
+      <c r="C1558" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1558" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1558" t="inlineStr">
+        <is>
+          <t>DOM DE DEUS</t>
+        </is>
+      </c>
+      <c r="F1558" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PAULO HENRIQUE BATISTA GONÇALVES </t>
+        </is>
+      </c>
+      <c r="B1559" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1559" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1559" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1559" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1559" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARIA EDUARDA DO AMARANTE TORRES </t>
+        </is>
+      </c>
+      <c r="B1560" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1560" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1560" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1560" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1560" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GABRIELLY DA LUZ ALMEIDA </t>
+        </is>
+      </c>
+      <c r="B1561" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1561" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1561" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1561" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1561" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VICTORIA FERREIRA VAZ </t>
+        </is>
+      </c>
+      <c r="B1562" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1562" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1562" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1562" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1562" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DÉBORA REGIANE GROSSKOPF GRAFFE </t>
+        </is>
+      </c>
+      <c r="B1563" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1563" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1563" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1563" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1563" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>NATASHA ALVES DA SILVA</t>
+        </is>
+      </c>
+      <c r="B1564" t="n">
+        <v>26</v>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="D1564" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1564" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1564" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NATÁLIA DE OLIVEIRA FIGURA </t>
+        </is>
+      </c>
+      <c r="B1565" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1565" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1565" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1565" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pastoral juvenil </t>
+        </is>
+      </c>
+      <c r="F1565" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARCOS GABRIEL SILVA GONÇALVES </t>
+        </is>
+      </c>
+      <c r="B1566" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1566" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1566" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pastoral juvenil </t>
+        </is>
+      </c>
+      <c r="F1566" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ERICK ALVES DA SILVA </t>
+        </is>
+      </c>
+      <c r="B1567" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1567" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1567" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1567" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pastoral juvenil </t>
+        </is>
+      </c>
+      <c r="F1567" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>ISABELLY CAROLINY HAMMERSCHMIDT</t>
+        </is>
+      </c>
+      <c r="B1568" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1568" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1568" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1568" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pastoral Juvenil </t>
+        </is>
+      </c>
+      <c r="F1568" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JENYFER LOPES </t>
+        </is>
+      </c>
+      <c r="B1569" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1569" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1569" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1569" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pastoral juvenil </t>
+        </is>
+      </c>
+      <c r="F1569" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BRUNA GRASIELI REIS MELO </t>
+        </is>
+      </c>
+      <c r="B1570" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1570" t="inlineStr">
+        <is>
+          <t>Agudos do Sul</t>
+        </is>
+      </c>
+      <c r="D1570" t="inlineStr">
+        <is>
+          <t>Nossa Senhora da Conceição - Agudos do Sul</t>
+        </is>
+      </c>
+      <c r="E1570" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1570" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LARISSA MACIEL KOHLER </t>
+        </is>
+      </c>
+      <c r="B1571" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1571" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>Imaculada Conceição - Lapa - Mariental</t>
+        </is>
+      </c>
+      <c r="E1571" t="inlineStr">
+        <is>
+          <t>Filhos de Maria</t>
+        </is>
+      </c>
+      <c r="F1571" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>ANITA CORDEIRO DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="B1572" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t>Curitiba</t>
+        </is>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>Nossa Senhora da Luz - Fazenda Rio Grande</t>
+        </is>
+      </c>
+      <c r="E1572" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1572" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>FRANCIANE NICHAK MACIEL</t>
+        </is>
+      </c>
+      <c r="B1573" t="n">
+        <v>41</v>
+      </c>
+      <c r="C1573" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>Imaculada Conceição - Lapa - Mariental</t>
+        </is>
+      </c>
+      <c r="E1573" t="inlineStr">
+        <is>
+          <t>Filhos de Maria</t>
+        </is>
+      </c>
+      <c r="F1573" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VITORIA EMANOELE POGZEBA </t>
+        </is>
+      </c>
+      <c r="B1574" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1574" t="inlineStr">
+        <is>
+          <t>Quitandinha</t>
+        </is>
+      </c>
+      <c r="D1574" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus da Cana Verde - Quitandinha</t>
+        </is>
+      </c>
+      <c r="E1574" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUC </t>
+        </is>
+      </c>
+      <c r="F1574" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>ISABELA APARECIDA TOKARSKI</t>
+        </is>
+      </c>
+      <c r="B1575" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1575" t="inlineStr">
+        <is>
+          <t>Quitandinha</t>
+        </is>
+      </c>
+      <c r="D1575" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus da Cana Verde - Quitandinha</t>
+        </is>
+      </c>
+      <c r="E1575" t="inlineStr">
+        <is>
+          <t>JUC- Jovens Unidos em Cristo</t>
+        </is>
+      </c>
+      <c r="F1575" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LETICIA HOPATA SKRABA </t>
+        </is>
+      </c>
+      <c r="B1576" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1576" t="inlineStr">
+        <is>
+          <t>Quitandinha</t>
+        </is>
+      </c>
+      <c r="D1576" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus da Cana Verde - Quitandinha</t>
+        </is>
+      </c>
+      <c r="E1576" t="inlineStr">
+        <is>
+          <t>Juc</t>
+        </is>
+      </c>
+      <c r="F1576" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VITÓRIA BLOCH DOS SANTOS </t>
+        </is>
+      </c>
+      <c r="B1577" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1577" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1577" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida (Guatupê) - SJP</t>
+        </is>
+      </c>
+      <c r="E1577" t="inlineStr">
+        <is>
+          <t xml:space="preserve">São José </t>
+        </is>
+      </c>
+      <c r="F1577" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RAFAELA BLOCH DE ALMEIDA </t>
+        </is>
+      </c>
+      <c r="B1578" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1578" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1578" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida (Guatupê) - SJP</t>
+        </is>
+      </c>
+      <c r="E1578" t="inlineStr">
+        <is>
+          <t xml:space="preserve">São José </t>
+        </is>
+      </c>
+      <c r="F1578" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BRENDA CRISPIM DE MATTOS </t>
+        </is>
+      </c>
+      <c r="B1579" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1579" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1579" t="inlineStr">
+        <is>
+          <t>Nossa Senhora de Fátima - SJP</t>
+        </is>
+      </c>
+      <c r="E1579" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pastoral Juvenil </t>
+        </is>
+      </c>
+      <c r="F1579" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GEOVANA MACHADO </t>
+        </is>
+      </c>
+      <c r="B1580" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1580" t="inlineStr">
+        <is>
+          <t>Piên</t>
+        </is>
+      </c>
+      <c r="D1580" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1580" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1580" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOAQUIM HEINICKE RUBEL </t>
+        </is>
+      </c>
+      <c r="B1581" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1581" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1581" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1581" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1581" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADRIAN BANCZINSKI THENÓRIO </t>
+        </is>
+      </c>
+      <c r="B1582" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1582" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1582" t="inlineStr">
+        <is>
+          <t>Imaculada Conceição - Lapa - Mariental</t>
+        </is>
+      </c>
+      <c r="E1582" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grupo São Miguel Arcanjo </t>
+        </is>
+      </c>
+      <c r="F1582" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAIARA MORDASKI TEIXEIRA </t>
+        </is>
+      </c>
+      <c r="B1583" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1583" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1583" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1583" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="F1583" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANUELLA BENTO MARINELLI </t>
+        </is>
+      </c>
+      <c r="B1584" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1584" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1584" t="inlineStr">
+        <is>
+          <t>Nossa Senhora de Fátima - SJP</t>
+        </is>
+      </c>
+      <c r="E1584" t="inlineStr">
+        <is>
+          <t>Magnificat</t>
+        </is>
+      </c>
+      <c r="F1584" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EDUARDA BENTO MARINELLI </t>
+        </is>
+      </c>
+      <c r="B1585" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1585" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1585" t="inlineStr">
+        <is>
+          <t>Nossa Senhora de Fátima - SJP</t>
+        </is>
+      </c>
+      <c r="E1585" t="inlineStr">
+        <is>
+          <t>Magnificat</t>
+        </is>
+      </c>
+      <c r="F1585" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RAFAELI FERNANDA AMÉRICO </t>
+        </is>
+      </c>
+      <c r="B1586" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1586" t="inlineStr">
+        <is>
+          <t>Quatro Barras</t>
+        </is>
+      </c>
+      <c r="D1586" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1586" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grupo Sol do Amanhã </t>
+        </is>
+      </c>
+      <c r="F1586" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LAURA BERTOLA HATAQUEIAMA </t>
+        </is>
+      </c>
+      <c r="B1587" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1587" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1587" t="inlineStr">
+        <is>
+          <t>Nossa Senhora de Fátima - SJP</t>
+        </is>
+      </c>
+      <c r="E1587" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pastoral Juvenil </t>
+        </is>
+      </c>
+      <c r="F1587" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t>HAGATA CRISTINE PEREIRA VIEIRA</t>
+        </is>
+      </c>
+      <c r="B1588" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1588" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1588" t="inlineStr">
+        <is>
+          <t>Santo Antônio - SJP</t>
+        </is>
+      </c>
+      <c r="E1588" t="inlineStr">
+        <is>
+          <t>G.j filhos do céu</t>
+        </is>
+      </c>
+      <c r="F1588" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t>BIANCA VITÓRIA BUDZIACKI</t>
+        </is>
+      </c>
+      <c r="B1589" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1589" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1589" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1589" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1589" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PAULO ROBERTO SANGALI CAMARGO </t>
+        </is>
+      </c>
+      <c r="B1590" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1590" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1590" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1590" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1590" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RAYSSA C. RODRIGUES </t>
+        </is>
+      </c>
+      <c r="B1591" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1591" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1591" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1591" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1591" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RHUAN RAMOS DE OLIVEIRA </t>
+        </is>
+      </c>
+      <c r="B1592" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1592" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1592" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1592" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1592" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t>EMANOELLY VITORIA PADILHA FURMAN</t>
+        </is>
+      </c>
+      <c r="B1593" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1593" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1593" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1593" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1593" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t xml:space="preserve">YASMIM PORTUGAL ZAPELA </t>
+        </is>
+      </c>
+      <c r="B1594" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1594" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1594" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1594" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1594" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t xml:space="preserve">STHEFANY SILVEIRA DOS ANJOS </t>
+        </is>
+      </c>
+      <c r="B1595" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1595" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1595" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1595" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1595" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOÃO LUIZ LOPES FAGUNDES </t>
+        </is>
+      </c>
+      <c r="B1596" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1596" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1596" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1596" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1596" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t>RODIMAR LINDERSON DA LUZ</t>
+        </is>
+      </c>
+      <c r="B1597" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1597" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1597" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1597" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1597" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUCAS DA SILVA </t>
+        </is>
+      </c>
+      <c r="B1598" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1598" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1598" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1598" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1598" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VITOR MARTINS </t>
+        </is>
+      </c>
+      <c r="B1599" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1599" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1599" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1599" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1599" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KAUE FERREIRA DA LUZ BACH </t>
+        </is>
+      </c>
+      <c r="B1600" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1600" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1600" t="inlineStr">
+        <is>
+          <t>Imaculada Conceição - Lapa - Mariental</t>
+        </is>
+      </c>
+      <c r="E1600" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1600" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARIA LETICIA SAHIA </t>
+        </is>
+      </c>
+      <c r="B1601" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1601" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1601" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1601" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORA JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1601" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FABIELE CAROLINE BOÇOEN DA LUZ </t>
+        </is>
+      </c>
+      <c r="B1602" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1602" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1602" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1602" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOAQUIM MORO </t>
+        </is>
+      </c>
+      <c r="B1603" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1603" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1603" t="inlineStr">
+        <is>
+          <t>São Sebastião  - SJP</t>
+        </is>
+      </c>
+      <c r="E1603" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pescadores da fé </t>
+        </is>
+      </c>
+      <c r="F1603" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VITOR LEONARDO FELIPAK </t>
+        </is>
+      </c>
+      <c r="B1604" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1604" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1604" t="inlineStr">
+        <is>
+          <t>São Sebastião  - SJP</t>
+        </is>
+      </c>
+      <c r="E1604" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pescadores Da Fé </t>
+        </is>
+      </c>
+      <c r="F1604" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAYSA MORDASKI SAHIA </t>
+        </is>
+      </c>
+      <c r="B1605" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1605" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1605" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1605" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1605" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KELLI CRISTINA STINGLIN </t>
+        </is>
+      </c>
+      <c r="B1606" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1606" t="inlineStr">
+        <is>
+          <t>Antônio Olinto</t>
+        </is>
+      </c>
+      <c r="D1606" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1606" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grupo de jovens </t>
+        </is>
+      </c>
+      <c r="F1606" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CARLOS  ROGÉRIO BORA </t>
+        </is>
+      </c>
+      <c r="B1607" t="n">
+        <v>42</v>
+      </c>
+      <c r="C1607" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1607" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1607" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1607" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VINICIUS MACHADO SANTOS </t>
+        </is>
+      </c>
+      <c r="B1608" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1608" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1608" t="inlineStr">
+        <is>
+          <t>São Sebastião  - SJP</t>
+        </is>
+      </c>
+      <c r="E1608" t="inlineStr">
+        <is>
+          <t>Grupo de jovens</t>
+        </is>
+      </c>
+      <c r="F1608" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="inlineStr">
+        <is>
+          <t>EMANUEL PADILHA</t>
+        </is>
+      </c>
+      <c r="B1609" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1609" t="inlineStr">
+        <is>
+          <t>Fazenda Rio Grande</t>
+        </is>
+      </c>
+      <c r="D1609" t="inlineStr">
+        <is>
+          <t>São Sebastião  - SJP</t>
+        </is>
+      </c>
+      <c r="E1609" t="inlineStr">
+        <is>
+          <t>Pescadores da Fe</t>
+        </is>
+      </c>
+      <c r="F1609" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="inlineStr">
+        <is>
+          <t>KARINE CAMPOS</t>
+        </is>
+      </c>
+      <c r="B1610" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1610" t="inlineStr">
+        <is>
+          <t>Fazenda Rio Grande</t>
+        </is>
+      </c>
+      <c r="D1610" t="inlineStr">
+        <is>
+          <t>São Sebastião  - SJP</t>
+        </is>
+      </c>
+      <c r="E1610" t="inlineStr">
+        <is>
+          <t>JOHS</t>
+        </is>
+      </c>
+      <c r="F1610" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VINICIUS AUGUSTO DE CAMPOS FELIPAKE </t>
+        </is>
+      </c>
+      <c r="B1611" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1611" t="inlineStr">
+        <is>
+          <t>Fazenda Rio Grande</t>
+        </is>
+      </c>
+      <c r="D1611" t="inlineStr">
+        <is>
+          <t>São Sebastião  - SJP</t>
+        </is>
+      </c>
+      <c r="E1611" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pescadores da fé </t>
+        </is>
+      </c>
+      <c r="F1611" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="inlineStr">
+        <is>
+          <t>AMANDA PRISCILA DE SOUZA BASTOS</t>
+        </is>
+      </c>
+      <c r="B1612" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1612" t="inlineStr">
+        <is>
+          <t>Mandirituba</t>
+        </is>
+      </c>
+      <c r="D1612" t="inlineStr">
+        <is>
+          <t>São Pedro - SJP</t>
+        </is>
+      </c>
+      <c r="E1612" t="inlineStr">
+        <is>
+          <t>Pescadores da fé</t>
+        </is>
+      </c>
+      <c r="F1612" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="inlineStr">
+        <is>
+          <t>GUILHERME MACHADO DE SOUZA</t>
+        </is>
+      </c>
+      <c r="B1613" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1613" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1613" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida (Guatupê) - SJP</t>
+        </is>
+      </c>
+      <c r="E1613" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1613" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ISABELLA ALVES </t>
+        </is>
+      </c>
+      <c r="B1614" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1614" t="inlineStr">
+        <is>
+          <t>Curitiba</t>
+        </is>
+      </c>
+      <c r="D1614" t="inlineStr">
+        <is>
+          <t>Nossa Senhora do Monte Claro - SJP</t>
+        </is>
+      </c>
+      <c r="E1614" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nenhum </t>
+        </is>
+      </c>
+      <c r="F1614" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROSANA HOFFMANN DOS SANTOS </t>
+        </is>
+      </c>
+      <c r="B1615" t="n">
+        <v>51</v>
+      </c>
+      <c r="C1615" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1615" t="inlineStr">
+        <is>
+          <t>Imaculada Conceição - Lapa - Mariental</t>
+        </is>
+      </c>
+      <c r="E1615" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acolhida </t>
+        </is>
+      </c>
+      <c r="F1615" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="inlineStr">
+        <is>
+          <t>ROSALIA DO ROCIO PAVAN</t>
+        </is>
+      </c>
+      <c r="B1616" t="n">
+        <v>45</v>
+      </c>
+      <c r="C1616" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1616" t="inlineStr">
+        <is>
+          <t>Imaculada Conceição - Contenda - Catanduvas do Sul</t>
+        </is>
+      </c>
+      <c r="E1616" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catequese </t>
+        </is>
+      </c>
+      <c r="F1616" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUZIA MULLER </t>
+        </is>
+      </c>
+      <c r="B1617" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1617" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>Imaculada Conceição - Lapa - Mariental</t>
+        </is>
+      </c>
+      <c r="E1617" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grupo de Jovens Filhos de Maria e Catequista </t>
+        </is>
+      </c>
+      <c r="F1617" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>RAPHAEL HELFENSTEIN CASAGRANDE</t>
+        </is>
+      </c>
+      <c r="B1618" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1618" t="inlineStr">
+        <is>
+          <t>Araucária</t>
+        </is>
+      </c>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nossa Senhora dos Remédios  - Araucária </t>
+        </is>
+      </c>
+      <c r="E1618" t="inlineStr">
+        <is>
+          <t>TLC / Reinflama</t>
+        </is>
+      </c>
+      <c r="F1618" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GUSTAVO SCHELBAUER </t>
+        </is>
+      </c>
+      <c r="B1619" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1619" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1619" t="inlineStr">
+        <is>
+          <t>Grupo de jovens</t>
+        </is>
+      </c>
+      <c r="F1619" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALYSSON DEMBISKI </t>
+        </is>
+      </c>
+      <c r="B1620" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1620" t="inlineStr">
+        <is>
+          <t>Campo do Tenente</t>
+        </is>
+      </c>
+      <c r="D1620" t="inlineStr">
+        <is>
+          <t>Cristo Rei - Campo do Tenente</t>
+        </is>
+      </c>
+      <c r="E1620" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Movimento TLC </t>
+        </is>
+      </c>
+      <c r="F1620" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUIZ AUGUSTO DEMBISKI </t>
+        </is>
+      </c>
+      <c r="B1621" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t>Campo do Tenente</t>
+        </is>
+      </c>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1621" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1621" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAMILE PZEBELAK </t>
+        </is>
+      </c>
+      <c r="B1622" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1622" t="inlineStr">
+        <is>
+          <t>Araucária</t>
+        </is>
+      </c>
+      <c r="D1622" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1622" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Geração Reinflama </t>
+        </is>
+      </c>
+      <c r="F1622" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>GUSTAVO ANDRADE BRAZ</t>
+        </is>
+      </c>
+      <c r="B1623" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1623" t="inlineStr">
+        <is>
+          <t>Araucária</t>
+        </is>
+      </c>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>Nossa Senhora das Dores Araucária - Araucária</t>
+        </is>
+      </c>
+      <c r="E1623" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REINFLAMA </t>
+        </is>
+      </c>
+      <c r="F1623" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TAINÁ GONÇALVES DOS SANTOS </t>
+        </is>
+      </c>
+      <c r="B1624" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1624" t="inlineStr">
+        <is>
+          <t>Agudos do Sul</t>
+        </is>
+      </c>
+      <c r="D1624" t="inlineStr">
+        <is>
+          <t>Nossa Senhora da Conceição - Agudos do Sul</t>
+        </is>
+      </c>
+      <c r="E1624" t="inlineStr">
+        <is>
+          <t>Tlc</t>
+        </is>
+      </c>
+      <c r="F1624" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LEONARDO DECONTTI FILHO </t>
+        </is>
+      </c>
+      <c r="B1625" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1625" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida (Guatupê) - SJP</t>
+        </is>
+      </c>
+      <c r="E1625" t="inlineStr">
+        <is>
+          <t>JUEC</t>
+        </is>
+      </c>
+      <c r="F1625" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>JOÃO PAULO BELNIAK</t>
+        </is>
+      </c>
+      <c r="B1626" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1626" t="inlineStr">
+        <is>
+          <t>Imaculada Conceição - Contenda - Catanduvas do Sul</t>
+        </is>
+      </c>
+      <c r="E1626" t="inlineStr">
+        <is>
+          <t>Jovens da imaculada</t>
+        </is>
+      </c>
+      <c r="F1626" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>JAKELINE CHEZANOSKI</t>
+        </is>
+      </c>
+      <c r="B1627" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1627" t="inlineStr">
+        <is>
+          <t>Imaculada Conceição - Contenda - Catanduvas do Sul</t>
+        </is>
+      </c>
+      <c r="E1627" t="inlineStr">
+        <is>
+          <t>Jovens da imaculada</t>
+        </is>
+      </c>
+      <c r="F1627" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>GEOVANI ANDRADE BRAZ</t>
+        </is>
+      </c>
+      <c r="B1628" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1628" t="inlineStr">
+        <is>
+          <t>Araucária</t>
+        </is>
+      </c>
+      <c r="D1628" t="inlineStr">
+        <is>
+          <t>Nossa Senhora das Dores Araucária - Araucária</t>
+        </is>
+      </c>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REINFLAMA </t>
+        </is>
+      </c>
+      <c r="F1628" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>MATEUS PADILHA</t>
+        </is>
+      </c>
+      <c r="B1629" t="n">
+        <v>23</v>
+      </c>
+      <c r="C1629" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1629" t="inlineStr">
+        <is>
+          <t>Imaculada Conceição - Contenda - Catanduvas do Sul</t>
+        </is>
+      </c>
+      <c r="E1629" t="inlineStr">
+        <is>
+          <t>Jovens da imaculada</t>
+        </is>
+      </c>
+      <c r="F1629" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>THIAGO MOURA SANTOS</t>
+        </is>
+      </c>
+      <c r="B1630" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1630" t="inlineStr">
+        <is>
+          <t>Imaculada Conceição - Lapa - Mariental</t>
+        </is>
+      </c>
+      <c r="E1630" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1630" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>YASMIN MARIA CALISTO</t>
+        </is>
+      </c>
+      <c r="B1631" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1631" t="inlineStr">
+        <is>
+          <t>São Sebastião  - SJP</t>
+        </is>
+      </c>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grupo de jovens </t>
+        </is>
+      </c>
+      <c r="F1631" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>KAUANE CRISTINA BARBOSA BATISTA</t>
+        </is>
+      </c>
+      <c r="B1632" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1632" t="inlineStr">
+        <is>
+          <t>Imaculada Conceição - Lapa - Mariental</t>
+        </is>
+      </c>
+      <c r="E1632" t="inlineStr">
+        <is>
+          <t>TLC</t>
+        </is>
+      </c>
+      <c r="F1632" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DANIEL FERREIRA SANTOS </t>
+        </is>
+      </c>
+      <c r="B1633" t="n">
+        <v>54</v>
+      </c>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1633" t="inlineStr">
+        <is>
+          <t>Imaculada Conceição - Lapa - Mariental</t>
+        </is>
+      </c>
+      <c r="E1633" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nenhum </t>
+        </is>
+      </c>
+      <c r="F1633" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JENIS RODRIGO FERREIRA PINHEIRO </t>
+        </is>
+      </c>
+      <c r="B1634" t="n">
+        <v>28</v>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1634" t="inlineStr">
+        <is>
+          <t>Imaculada Conceição - Lapa - Mariental</t>
+        </is>
+      </c>
+      <c r="E1634" t="inlineStr">
+        <is>
+          <t>TLC</t>
+        </is>
+      </c>
+      <c r="F1634" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUAN EDUARDO FLAUSINO DOS SANTOS </t>
+        </is>
+      </c>
+      <c r="B1635" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1635" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1635" t="inlineStr">
+        <is>
+          <t>Imaculada Conceição - Lapa - Mariental</t>
+        </is>
+      </c>
+      <c r="E1635" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1635" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JULIANO CARVALHO DE OLIVEIRA </t>
+        </is>
+      </c>
+      <c r="B1636" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1636" t="inlineStr">
+        <is>
+          <t>Santo Antônio - Lapa</t>
+        </is>
+      </c>
+      <c r="E1636" t="inlineStr">
+        <is>
+          <t>TLC</t>
+        </is>
+      </c>
+      <c r="F1636" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>BRYAN RIBEIRO DOS SANTOS MOREIRA</t>
+        </is>
+      </c>
+      <c r="B1637" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>Araucária</t>
+        </is>
+      </c>
+      <c r="D1637" t="inlineStr">
+        <is>
+          <t>Nossa Senhora das Dores Araucária - Araucária</t>
+        </is>
+      </c>
+      <c r="E1637" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REINFLAMA </t>
+        </is>
+      </c>
+      <c r="F1637" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GABRIEL KLEMBA VALDERA </t>
+        </is>
+      </c>
+      <c r="B1638" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1638" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1638" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1638" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1638" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>MATHEUS WALDERA SILVA</t>
+        </is>
+      </c>
+      <c r="B1639" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1639" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1639" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1639" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>PEDRO HENRIQUE MARTINS MAYER</t>
+        </is>
+      </c>
+      <c r="B1640" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1640" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1640" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1640" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>RIAHNNE ARAÚJO SUTIL DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="B1641" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t>Piraquara</t>
+        </is>
+      </c>
+      <c r="D1641" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1641" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1641" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RYAN FELIPE BORGES DE SOUZA </t>
+        </is>
+      </c>
+      <c r="B1642" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t>Araucária</t>
+        </is>
+      </c>
+      <c r="D1642" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1642" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reinflama </t>
+        </is>
+      </c>
+      <c r="F1642" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MILENA LEINEKER </t>
+        </is>
+      </c>
+      <c r="B1643" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1643" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1643" t="inlineStr">
+        <is>
+          <t>TLC - RIO NEGRO</t>
+        </is>
+      </c>
+      <c r="F1643" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANA JULIA PZEBETHENIAKI </t>
+        </is>
+      </c>
+      <c r="B1644" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>Imaculada Conceição - Lapa - Mariental</t>
+        </is>
+      </c>
+      <c r="E1644" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1644" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>CECÍLIA DE CREMA E PAIVA</t>
+        </is>
+      </c>
+      <c r="B1645" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1645" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus - SJP</t>
+        </is>
+      </c>
+      <c r="E1645" t="inlineStr">
+        <is>
+          <t>Pegadas</t>
+        </is>
+      </c>
+      <c r="F1645" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>MARIA VITÓRIA NOGAS DA MOTA</t>
+        </is>
+      </c>
+      <c r="B1646" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1646" t="inlineStr">
+        <is>
+          <t>São Sebastião  - SJP</t>
+        </is>
+      </c>
+      <c r="E1646" t="inlineStr">
+        <is>
+          <t>Pescadores Da Fé</t>
+        </is>
+      </c>
+      <c r="F1646" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PATRICK HALERANDRO DE SOUZA </t>
+        </is>
+      </c>
+      <c r="B1647" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1647" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1647" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NICOLAS ARTHUR DAS CHAGAS LINECIA </t>
+        </is>
+      </c>
+      <c r="B1648" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>Nossa Senhora de Fátima - SJP</t>
+        </is>
+      </c>
+      <c r="E1648" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1648" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>EVENYN RAYNE JACINTHO DE SOUZA</t>
+        </is>
+      </c>
+      <c r="B1649" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1649" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1649" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>CAROLINE ALVES FERREIRA</t>
+        </is>
+      </c>
+      <c r="B1650" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>São Sebastião  - SJP</t>
+        </is>
+      </c>
+      <c r="E1650" t="inlineStr">
+        <is>
+          <t>Movimento JOHS</t>
+        </is>
+      </c>
+      <c r="F1650" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANDRÉ VITOR KOVALCZUK </t>
+        </is>
+      </c>
+      <c r="B1651" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>Santos Reis - Lapa</t>
+        </is>
+      </c>
+      <c r="E1651" t="inlineStr">
+        <is>
+          <t>guerreiros de santos reis</t>
+        </is>
+      </c>
+      <c r="F1651" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>HELOIZI FERREIRA PZEBETHENIAKI</t>
+        </is>
+      </c>
+      <c r="B1652" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>Santos Reis - Lapa</t>
+        </is>
+      </c>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>guerreiros de santos reis</t>
+        </is>
+      </c>
+      <c r="F1652" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAQUELINE SCHULES DOS SANTOS </t>
+        </is>
+      </c>
+      <c r="B1653" t="n">
+        <v>40</v>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>São Sebastião  - SJP</t>
+        </is>
+      </c>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>Movimento Johs</t>
+        </is>
+      </c>
+      <c r="F1653" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DIOGO MIKA </t>
+        </is>
+      </c>
+      <c r="B1654" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1654" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1654" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ISABELA VICTORIA DOMINGUES DOS SANTOS </t>
+        </is>
+      </c>
+      <c r="B1655" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>missão aprisco bom pastor</t>
+        </is>
+      </c>
+      <c r="F1655" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FERNANDA  DE SOUZAA DOMINGUES </t>
+        </is>
+      </c>
+      <c r="B1656" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t xml:space="preserve">missão aprisco bom pastor </t>
+        </is>
+      </c>
+      <c r="F1656" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOFIA REBECA BARBOSA </t>
+        </is>
+      </c>
+      <c r="B1657" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1657" t="inlineStr">
+        <is>
+          <t>missão aprisco bom pastor</t>
+        </is>
+      </c>
+      <c r="F1657" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BRAYAN RODRIGUES </t>
+        </is>
+      </c>
+      <c r="B1658" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t xml:space="preserve">missão aprisco bom pastor </t>
+        </is>
+      </c>
+      <c r="F1658" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARCOS DANIEL RAMOS </t>
+        </is>
+      </c>
+      <c r="B1659" t="n">
+        <v>26</v>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>Piên</t>
+        </is>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1659" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GABRIEL DE ABREU FERREIRA </t>
+        </is>
+      </c>
+      <c r="B1660" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1660" t="inlineStr">
+        <is>
+          <t>missão aprisco bom pastor</t>
+        </is>
+      </c>
+      <c r="F1660" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>ADISSON IAN SILVA CRISOTOMO</t>
+        </is>
+      </c>
+      <c r="B1661" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1661" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t xml:space="preserve">missão aprisco bom pastor </t>
+        </is>
+      </c>
+      <c r="F1661" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PEDRO HENRIQUE OLIVEIRA </t>
+        </is>
+      </c>
+      <c r="B1662" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1662" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1662" t="inlineStr">
+        <is>
+          <t xml:space="preserve">missão aprisco bom pastor </t>
+        </is>
+      </c>
+      <c r="F1662" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>MILENA MENDES</t>
+        </is>
+      </c>
+      <c r="B1663" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1663" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1663" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>ANDRESSA APARECIDA CARDOSO DE LIMA</t>
+        </is>
+      </c>
+      <c r="B1664" t="n">
+        <v>26</v>
+      </c>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t>Piên</t>
+        </is>
+      </c>
+      <c r="D1664" t="inlineStr">
+        <is>
+          <t>Nossa Senhora das Graças - Piên</t>
+        </is>
+      </c>
+      <c r="E1664" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1664" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>DANILO ULSON VINTORIN</t>
+        </is>
+      </c>
+      <c r="B1665" t="n">
+        <v>27</v>
+      </c>
+      <c r="C1665" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1665" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1665" t="inlineStr">
+        <is>
+          <t>missão aprisco bom pastor</t>
+        </is>
+      </c>
+      <c r="F1665" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>AMANDA RAIBERO</t>
+        </is>
+      </c>
+      <c r="B1666" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1666" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1666" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1666" t="inlineStr">
+        <is>
+          <t xml:space="preserve">missão aprisco bom pastor </t>
+        </is>
+      </c>
+      <c r="F1666" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LARA DUDA PERBICHE </t>
+        </is>
+      </c>
+      <c r="B1667" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1667" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1667" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1667" t="inlineStr">
+        <is>
+          <t>missão aprisco</t>
+        </is>
+      </c>
+      <c r="F1667" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FABIO ROCHA </t>
+        </is>
+      </c>
+      <c r="B1668" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1668" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1668" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1668" t="inlineStr">
+        <is>
+          <t xml:space="preserve">missão aprisco bom pastor </t>
+        </is>
+      </c>
+      <c r="F1668" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KAUA FUCKNER LEITE PAÍS </t>
+        </is>
+      </c>
+      <c r="B1669" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1669" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1669" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1669" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1669" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FERNANDA DO CARMO </t>
+        </is>
+      </c>
+      <c r="B1670" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1670" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1670" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1670" t="inlineStr">
+        <is>
+          <t xml:space="preserve">missão aprisco bom pastor </t>
+        </is>
+      </c>
+      <c r="F1670" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>JOÃO GUILHERME APARECIDO BORGES LAZAROTO</t>
+        </is>
+      </c>
+      <c r="B1671" t="n">
+        <v>25</v>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1671" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1671" t="inlineStr">
+        <is>
+          <t>missão aprisco bom pastor</t>
+        </is>
+      </c>
+      <c r="F1671" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>MARCOS EDUARDO</t>
+        </is>
+      </c>
+      <c r="B1672" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1672" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1672" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1672" t="inlineStr">
+        <is>
+          <t>missão aprisco bom pastor</t>
+        </is>
+      </c>
+      <c r="F1672" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>MURILO DOS SANTOS WILGOSZ</t>
+        </is>
+      </c>
+      <c r="B1673" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1673" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1673" t="inlineStr">
+        <is>
+          <t>Movimento TLC</t>
+        </is>
+      </c>
+      <c r="F1673" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>SIDNEY  FERREIRA</t>
+        </is>
+      </c>
+      <c r="B1674" t="n">
+        <v>25</v>
+      </c>
+      <c r="C1674" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1674" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1674" t="inlineStr">
+        <is>
+          <t>missão aprisco bom pastor</t>
+        </is>
+      </c>
+      <c r="F1674" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>THAMILLI GABRIELLU CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="B1675" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1675" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1675" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1675" t="inlineStr">
+        <is>
+          <t xml:space="preserve">missão aprisco bom pastor </t>
+        </is>
+      </c>
+      <c r="F1675" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t>JOÃO VITOR</t>
+        </is>
+      </c>
+      <c r="B1676" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>Quatro Barras</t>
+        </is>
+      </c>
+      <c r="D1676" t="inlineStr">
+        <is>
+          <t>São Sebastião - Quatro Barras</t>
+        </is>
+      </c>
+      <c r="E1676" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sol do amanhã </t>
+        </is>
+      </c>
+      <c r="F1676" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GABRIELE MOREIR DOS SANTOS </t>
+        </is>
+      </c>
+      <c r="B1677" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1677" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1677" t="inlineStr">
+        <is>
+          <t>missão aprisco pastor</t>
+        </is>
+      </c>
+      <c r="F1677" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAROLINE APARECIDA MORREIRA DOSSANTOS </t>
+        </is>
+      </c>
+      <c r="B1678" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1678" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1678" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1678" t="inlineStr">
+        <is>
+          <t>missão aprisco bom pastor</t>
+        </is>
+      </c>
+      <c r="F1678" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TÂNIA STAFIN GROSSL </t>
+        </is>
+      </c>
+      <c r="B1679" t="n">
+        <v>32</v>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1679" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1679" t="inlineStr">
+        <is>
+          <t>TLC</t>
+        </is>
+      </c>
+      <c r="F1679" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NICOLLAS DA SILVA </t>
+        </is>
+      </c>
+      <c r="B1680" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1680" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1680" t="inlineStr">
+        <is>
+          <t>missão aprisco bom pastor</t>
+        </is>
+      </c>
+      <c r="F1680" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARIA JANETE SILVA </t>
+        </is>
+      </c>
+      <c r="B1681" t="n">
+        <v>36</v>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1681" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1681" t="inlineStr">
+        <is>
+          <t>missão</t>
+        </is>
+      </c>
+      <c r="F1681" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>LUCILENE QUESSA</t>
+        </is>
+      </c>
+      <c r="B1682" t="n">
+        <v>36</v>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1682" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1682" t="inlineStr">
+        <is>
+          <t>missão</t>
+        </is>
+      </c>
+      <c r="F1682" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>ELOA RAMOS BERNANDO</t>
+        </is>
+      </c>
+      <c r="B1683" t="n">
+        <v>9</v>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1683" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1683" t="inlineStr">
+        <is>
+          <t>missao</t>
+        </is>
+      </c>
+      <c r="F1683" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>ANTONIO SILVA KNORTS</t>
+        </is>
+      </c>
+      <c r="B1684" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1684" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1684" t="inlineStr">
+        <is>
+          <t>missão</t>
+        </is>
+      </c>
+      <c r="F1684" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALEXANDRA FAGUNDES </t>
+        </is>
+      </c>
+      <c r="B1685" t="n">
+        <v>26</v>
+      </c>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1685" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1685" t="inlineStr">
+        <is>
+          <t xml:space="preserve">missão </t>
+        </is>
+      </c>
+      <c r="F1685" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>MARIANA CONCEIÇÃO SGARBE</t>
+        </is>
+      </c>
+      <c r="B1686" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1686" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1686" t="inlineStr">
+        <is>
+          <t>missão</t>
+        </is>
+      </c>
+      <c r="F1686" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>MANUELA VILPATO</t>
+        </is>
+      </c>
+      <c r="B1687" t="n">
+        <v>26</v>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1687" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1687" t="inlineStr">
+        <is>
+          <t>missão</t>
+        </is>
+      </c>
+      <c r="F1687" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DANIEL HENRIQUE CAETANI DE OLIVEIRA </t>
+        </is>
+      </c>
+      <c r="B1688" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1688" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1688" t="inlineStr">
+        <is>
+          <t>missão</t>
+        </is>
+      </c>
+      <c r="F1688" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>DANIEL AUGUSTO</t>
+        </is>
+      </c>
+      <c r="B1689" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1689" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1689" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1689" t="inlineStr">
+        <is>
+          <t>missao</t>
+        </is>
+      </c>
+      <c r="F1689" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>JOAO PAULO</t>
+        </is>
+      </c>
+      <c r="B1690" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1690" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1690" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1690" t="inlineStr">
+        <is>
+          <t>missao</t>
+        </is>
+      </c>
+      <c r="F1690" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>MICAELLY</t>
+        </is>
+      </c>
+      <c r="B1691" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1691" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1691" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1691" t="inlineStr">
+        <is>
+          <t>missao</t>
+        </is>
+      </c>
+      <c r="F1691" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>JULIA</t>
+        </is>
+      </c>
+      <c r="B1692" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1692" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1692" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1692" t="inlineStr">
+        <is>
+          <t>missao</t>
+        </is>
+      </c>
+      <c r="F1692" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>KYMBERLI</t>
+        </is>
+      </c>
+      <c r="B1693" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1693" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1693" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1693" t="inlineStr">
+        <is>
+          <t>missão</t>
+        </is>
+      </c>
+      <c r="F1693" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>PIETRO</t>
+        </is>
+      </c>
+      <c r="B1694" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1694" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1694" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1694" t="inlineStr">
+        <is>
+          <t>missão</t>
+        </is>
+      </c>
+      <c r="F1694" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>JÃO PINHEIRO</t>
+        </is>
+      </c>
+      <c r="B1695" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1695" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1695" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1695" t="inlineStr">
+        <is>
+          <t>missão</t>
+        </is>
+      </c>
+      <c r="F1695" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BEATRIZ PERSEGONA </t>
+        </is>
+      </c>
+      <c r="B1696" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1696" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1696" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1696" t="inlineStr">
+        <is>
+          <t>missão</t>
+        </is>
+      </c>
+      <c r="F1696" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>LARISSA</t>
+        </is>
+      </c>
+      <c r="B1697" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1697" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1697" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1697" t="inlineStr">
+        <is>
+          <t>missão</t>
+        </is>
+      </c>
+      <c r="F1697" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>OTAVIO</t>
+        </is>
+      </c>
+      <c r="B1698" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1698" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1698" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1698" t="inlineStr">
+        <is>
+          <t>missão</t>
+        </is>
+      </c>
+      <c r="F1698" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>JULIA</t>
+        </is>
+      </c>
+      <c r="B1699" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1699" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1699" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1699" t="inlineStr">
+        <is>
+          <t>missão</t>
+        </is>
+      </c>
+      <c r="F1699" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>ADRIANA</t>
+        </is>
+      </c>
+      <c r="B1700" t="n">
+        <v>36</v>
+      </c>
+      <c r="C1700" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1700" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1700" t="inlineStr">
+        <is>
+          <t>missão</t>
+        </is>
+      </c>
+      <c r="F1700" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>VITOR</t>
+        </is>
+      </c>
+      <c r="B1701" t="n">
+        <v>26</v>
+      </c>
+      <c r="C1701" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1701" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1701" t="inlineStr">
+        <is>
+          <t>missão</t>
+        </is>
+      </c>
+      <c r="F1701" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FERNANDA </t>
+        </is>
+      </c>
+      <c r="B1702" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1702" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1702" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1702" t="inlineStr">
+        <is>
+          <t>missão</t>
+        </is>
+      </c>
+      <c r="F1702" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>BERNARDO</t>
+        </is>
+      </c>
+      <c r="B1703" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1703" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1703" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1703" t="inlineStr">
+        <is>
+          <t>missão</t>
+        </is>
+      </c>
+      <c r="F1703" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GIOVANA </t>
+        </is>
+      </c>
+      <c r="B1704" t="n">
+        <v>36</v>
+      </c>
+      <c r="C1704" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1704" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1704" t="inlineStr">
+        <is>
+          <t>missão</t>
+        </is>
+      </c>
+      <c r="F1704" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANA LUIZA NASCIMENTO </t>
+        </is>
+      </c>
+      <c r="B1705" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1705" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1705" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida (Guatupê) - SJP</t>
+        </is>
+      </c>
+      <c r="E1705" t="inlineStr">
+        <is>
+          <t>Pascon</t>
+        </is>
+      </c>
+      <c r="F1705" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>DENISE</t>
+        </is>
+      </c>
+      <c r="B1706" t="n">
+        <v>47</v>
+      </c>
+      <c r="C1706" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1706" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1706" t="inlineStr">
+        <is>
+          <t>missão</t>
+        </is>
+      </c>
+      <c r="F1706" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MILENA </t>
+        </is>
+      </c>
+      <c r="B1707" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1707" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1707" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1707" t="inlineStr">
+        <is>
+          <t>missão</t>
+        </is>
+      </c>
+      <c r="F1707" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
+        <is>
+          <t>SOFIA DUARTE PIRES</t>
+        </is>
+      </c>
+      <c r="B1708" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1708" t="inlineStr">
+        <is>
+          <t>Piraquara</t>
+        </is>
+      </c>
+      <c r="D1708" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus dos Passos - Piraquara</t>
+        </is>
+      </c>
+      <c r="E1708" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1708" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUIZ FERNANDO FERREIRA TIZOTE </t>
+        </is>
+      </c>
+      <c r="B1709" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1709" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1709" t="inlineStr">
+        <is>
+          <t>Santo Antônio - Lapa</t>
+        </is>
+      </c>
+      <c r="E1709" t="inlineStr">
+        <is>
+          <t>TLC</t>
+        </is>
+      </c>
+      <c r="F1709" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JULIA CORDEIRO OLIVEIRA </t>
+        </is>
+      </c>
+      <c r="B1710" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1710" t="inlineStr">
+        <is>
+          <t>Piraquara</t>
+        </is>
+      </c>
+      <c r="D1710" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus dos Passos - Piraquara</t>
+        </is>
+      </c>
+      <c r="E1710" t="inlineStr">
+        <is>
+          <t>Grupo de jovens</t>
+        </is>
+      </c>
+      <c r="F1710" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>RAILAN CARDOZO LAU</t>
+        </is>
+      </c>
+      <c r="B1711" t="n">
+        <v>29</v>
+      </c>
+      <c r="C1711" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1711" t="inlineStr">
+        <is>
+          <t>Santo Antônio - SJP</t>
+        </is>
+      </c>
+      <c r="E1711" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grupo de jovens- Amigos pela fé </t>
+        </is>
+      </c>
+      <c r="F1711" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EDUARDO VIANTE DE SANTANA </t>
+        </is>
+      </c>
+      <c r="B1712" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1712" t="inlineStr">
+        <is>
+          <t>Piraquara</t>
+        </is>
+      </c>
+      <c r="D1712" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus dos Passos - Piraquara</t>
+        </is>
+      </c>
+      <c r="E1712" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nenhum grupo específico </t>
+        </is>
+      </c>
+      <c r="F1712" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>HELLEN CRISTINE TABORDA</t>
+        </is>
+      </c>
+      <c r="B1713" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1713" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="D1713" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1713" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Renovação carismática </t>
+        </is>
+      </c>
+      <c r="F1713" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>LUANNA V F KOLLING</t>
+        </is>
+      </c>
+      <c r="B1714" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1714" t="inlineStr">
+        <is>
+          <t>Piraquara</t>
+        </is>
+      </c>
+      <c r="D1714" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus dos Passos - Piraquara</t>
+        </is>
+      </c>
+      <c r="E1714" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dom Bosco </t>
+        </is>
+      </c>
+      <c r="F1714" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>THIAGO VENTURA DEREVORIZ</t>
+        </is>
+      </c>
+      <c r="B1715" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1715" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1715" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida (Xingu) - SJP</t>
+        </is>
+      </c>
+      <c r="E1715" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1715" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>DAVI RAMOS BUENO</t>
+        </is>
+      </c>
+      <c r="B1716" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1716" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1716" t="inlineStr">
+        <is>
+          <t>Santo Antônio - Lapa</t>
+        </is>
+      </c>
+      <c r="E1716" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1716" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GABRIELLY LAÍS DE CAMARGO </t>
+        </is>
+      </c>
+      <c r="B1717" t="n">
+        <v>26</v>
+      </c>
+      <c r="C1717" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="D1717" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1717" t="inlineStr">
+        <is>
+          <t>DOM DE DEUS</t>
+        </is>
+      </c>
+      <c r="F1717" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GRASIELLY THAÍS DE CAMARGO </t>
+        </is>
+      </c>
+      <c r="B1718" t="n">
+        <v>26</v>
+      </c>
+      <c r="C1718" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="D1718" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1718" t="inlineStr">
+        <is>
+          <t>DOM DE DEUS</t>
+        </is>
+      </c>
+      <c r="F1718" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IZABELLE PIACESKI PERSEGUINI </t>
+        </is>
+      </c>
+      <c r="B1719" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1719" t="inlineStr">
+        <is>
+          <t>Piraquara</t>
+        </is>
+      </c>
+      <c r="D1719" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus dos Passos - Piraquara</t>
+        </is>
+      </c>
+      <c r="E1719" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nenhum grupo específico </t>
+        </is>
+      </c>
+      <c r="F1719" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EDSON LUIZ RUTHES JUNIOR </t>
+        </is>
+      </c>
+      <c r="B1720" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1720" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1720" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1720" t="inlineStr">
+        <is>
+          <t>Dom de Deus</t>
+        </is>
+      </c>
+      <c r="F1720" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ESTEVÃO WOTROBA </t>
+        </is>
+      </c>
+      <c r="B1721" t="n">
+        <v>45</v>
+      </c>
+      <c r="C1721" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1721" t="inlineStr">
+        <is>
+          <t>Nossa Senhora das Graças - Piên</t>
+        </is>
+      </c>
+      <c r="E1721" t="inlineStr">
+        <is>
+          <t>DNA</t>
+        </is>
+      </c>
+      <c r="F1721" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUIZA BARRA MARIN </t>
+        </is>
+      </c>
+      <c r="B1722" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1722" t="inlineStr">
+        <is>
+          <t>Araucária</t>
+        </is>
+      </c>
+      <c r="D1722" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nossa Senhora dos Remédios  - Araucária </t>
+        </is>
+      </c>
+      <c r="E1722" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pastoral de Acólitos </t>
+        </is>
+      </c>
+      <c r="F1722" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CARLOS EDUARDO DOS SANTOS </t>
+        </is>
+      </c>
+      <c r="B1723" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1723" t="inlineStr">
+        <is>
+          <t>Araucária</t>
+        </is>
+      </c>
+      <c r="D1723" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nossa Senhora dos Remédios  - Araucária </t>
+        </is>
+      </c>
+      <c r="E1723" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acólitos </t>
+        </is>
+      </c>
+      <c r="F1723" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="inlineStr">
+        <is>
+          <t>LUIZA CRISTINA FLAUSINO ROSA</t>
+        </is>
+      </c>
+      <c r="B1724" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1724" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1724" t="inlineStr">
+        <is>
+          <t>Imaculada Conceição - Lapa - Mariental</t>
+        </is>
+      </c>
+      <c r="E1724" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1724" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ERICK SAMUEL BAIL </t>
+        </is>
+      </c>
+      <c r="B1725" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1725" t="inlineStr">
+        <is>
+          <t>Piên</t>
+        </is>
+      </c>
+      <c r="D1725" t="inlineStr">
+        <is>
+          <t>Nossa Senhora das Graças - Piên</t>
+        </is>
+      </c>
+      <c r="E1725" t="inlineStr">
+        <is>
+          <t>TLC</t>
+        </is>
+      </c>
+      <c r="F1725" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="inlineStr">
+        <is>
+          <t>CLEVERTON JUNIOR KNOPEK</t>
+        </is>
+      </c>
+      <c r="B1726" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1726" t="inlineStr">
+        <is>
+          <t>Piên</t>
+        </is>
+      </c>
+      <c r="D1726" t="inlineStr">
+        <is>
+          <t>Nossa Senhora das Graças - Piên</t>
+        </is>
+      </c>
+      <c r="E1726" t="inlineStr">
+        <is>
+          <t>DNA</t>
+        </is>
+      </c>
+      <c r="F1726" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALICE APARECIDA FLAUSINO ROSA </t>
+        </is>
+      </c>
+      <c r="B1727" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1727" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1727" t="inlineStr">
+        <is>
+          <t>Imaculada Conceição - Lapa - Mariental</t>
+        </is>
+      </c>
+      <c r="E1727" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1727" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EDUARDO DOS SANTOS NEPOMOCENO </t>
+        </is>
+      </c>
+      <c r="B1728" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1728" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1728" t="inlineStr">
+        <is>
+          <t>Santos Reis - Lapa</t>
+        </is>
+      </c>
+      <c r="E1728" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jovens </t>
+        </is>
+      </c>
+      <c r="F1728" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LISLAINE ALBRECHT </t>
+        </is>
+      </c>
+      <c r="B1729" t="n">
+        <v>29</v>
+      </c>
+      <c r="C1729" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1729" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1729" t="inlineStr">
+        <is>
+          <t>TLC</t>
+        </is>
+      </c>
+      <c r="F1729" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUANA IAREK KATZER </t>
+        </is>
+      </c>
+      <c r="B1730" t="n">
+        <v>22</v>
+      </c>
+      <c r="C1730" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1730" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1730" t="inlineStr">
+        <is>
+          <t>Tlc</t>
+        </is>
+      </c>
+      <c r="F1730" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t>ENZO PRINS</t>
+        </is>
+      </c>
+      <c r="B1731" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1731" t="inlineStr">
+        <is>
+          <t>São Mateus do Sul</t>
+        </is>
+      </c>
+      <c r="D1731" t="inlineStr">
+        <is>
+          <t>Santos Reis - Lapa</t>
+        </is>
+      </c>
+      <c r="E1731" t="inlineStr">
+        <is>
+          <t>Grupo Guerreiros de santos reis</t>
+        </is>
+      </c>
+      <c r="F1731" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t>ANA PAULA SOZZEKI</t>
+        </is>
+      </c>
+      <c r="B1732" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1732" t="inlineStr">
+        <is>
+          <t>Tijucas do Sul</t>
+        </is>
+      </c>
+      <c r="D1732" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1732" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1732" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t>MARIA EDUARDA BEIL</t>
+        </is>
+      </c>
+      <c r="B1733" t="n">
+        <v>22</v>
+      </c>
+      <c r="C1733" t="inlineStr">
+        <is>
+          <t>Piên</t>
+        </is>
+      </c>
+      <c r="D1733" t="inlineStr">
+        <is>
+          <t>Nossa Senhora das Graças - Piên</t>
+        </is>
+      </c>
+      <c r="E1733" t="inlineStr">
+        <is>
+          <t>DNA</t>
+        </is>
+      </c>
+      <c r="F1733" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t>ALISON ALBRECHT</t>
+        </is>
+      </c>
+      <c r="B1734" t="n">
+        <v>28</v>
+      </c>
+      <c r="C1734" t="inlineStr">
+        <is>
+          <t>Piên</t>
+        </is>
+      </c>
+      <c r="D1734" t="inlineStr">
+        <is>
+          <t>Nossa Senhora das Graças - Piên</t>
+        </is>
+      </c>
+      <c r="E1734" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juventude </t>
+        </is>
+      </c>
+      <c r="F1734" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARCELO SENN </t>
+        </is>
+      </c>
+      <c r="B1735" t="n">
+        <v>37</v>
+      </c>
+      <c r="C1735" t="inlineStr">
+        <is>
+          <t>Piên</t>
+        </is>
+      </c>
+      <c r="D1735" t="inlineStr">
+        <is>
+          <t>Nossa Senhora das Graças - Piên</t>
+        </is>
+      </c>
+      <c r="E1735" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juventude </t>
+        </is>
+      </c>
+      <c r="F1735" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NICOLAS SANTANA MAKOHIN </t>
+        </is>
+      </c>
+      <c r="B1736" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1736" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1736" t="inlineStr">
+        <is>
+          <t>São Cristóvão - SJP</t>
+        </is>
+      </c>
+      <c r="E1736" t="inlineStr">
+        <is>
+          <t>jubec - capela Santa Rita</t>
+        </is>
+      </c>
+      <c r="F1736" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>KENNETH MARCELUS DE BORBA</t>
+        </is>
+      </c>
+      <c r="B1737" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1737" t="inlineStr">
+        <is>
+          <t>Piên</t>
+        </is>
+      </c>
+      <c r="D1737" t="inlineStr">
+        <is>
+          <t>Nossa Senhora das Graças - Piên</t>
+        </is>
+      </c>
+      <c r="E1737" t="inlineStr">
+        <is>
+          <t>Juventude Piên</t>
+        </is>
+      </c>
+      <c r="F1737" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RICARDO CORREA FERREIRA  </t>
+        </is>
+      </c>
+      <c r="B1738" t="n">
+        <v>25</v>
+      </c>
+      <c r="C1738" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1738" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1738" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dom De Deus </t>
+        </is>
+      </c>
+      <c r="F1738" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOSIANE WALECSKO DE OLIVEIRA </t>
+        </is>
+      </c>
+      <c r="B1739" t="n">
+        <v>49</v>
+      </c>
+      <c r="C1739" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1739" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1739" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TLC </t>
+        </is>
+      </c>
+      <c r="F1739" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MATHEUS GABRIEL SOZZEKI </t>
+        </is>
+      </c>
+      <c r="B1740" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1740" t="inlineStr">
+        <is>
+          <t>Tijucas do Sul</t>
+        </is>
+      </c>
+      <c r="D1740" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1740" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1740" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BRUNO EDUARDO WALECSKO DE OLIVEIRA </t>
+        </is>
+      </c>
+      <c r="B1741" t="n">
+        <v>28</v>
+      </c>
+      <c r="C1741" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1741" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1741" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1741" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>RAFAELA SANTOS SABINO</t>
+        </is>
+      </c>
+      <c r="B1742" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1742" t="inlineStr">
+        <is>
+          <t>Araucária</t>
+        </is>
+      </c>
+      <c r="D1742" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nossa Senhora dos Remédios  - Araucária </t>
+        </is>
+      </c>
+      <c r="E1742" t="inlineStr">
+        <is>
+          <t>Pastoral de Acólitos</t>
+        </is>
+      </c>
+      <c r="F1742" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t xml:space="preserve">YASMIM ISABELE SEIDEL PIRES </t>
+        </is>
+      </c>
+      <c r="B1743" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1743" t="inlineStr">
+        <is>
+          <t>Piên</t>
+        </is>
+      </c>
+      <c r="D1743" t="inlineStr">
+        <is>
+          <t>Nossa Senhora das Graças - Piên</t>
+        </is>
+      </c>
+      <c r="E1743" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1743" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOÃO MARCELO GREIN </t>
+        </is>
+      </c>
+      <c r="B1744" t="n">
+        <v>47</v>
+      </c>
+      <c r="C1744" t="inlineStr">
+        <is>
+          <t>Curitiba</t>
+        </is>
+      </c>
+      <c r="D1744" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1744" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1744" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BRUNA ALBINO PURPER </t>
+        </is>
+      </c>
+      <c r="B1745" t="n">
+        <v>29</v>
+      </c>
+      <c r="C1745" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1745" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1745" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nenhum </t>
+        </is>
+      </c>
+      <c r="F1745" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KAUANE APARECIDA CUBAS DE LIMA </t>
+        </is>
+      </c>
+      <c r="B1746" t="n">
+        <v>23</v>
+      </c>
+      <c r="C1746" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1746" t="inlineStr">
+        <is>
+          <t>Nossa Senhora do Monte Claro - SJP</t>
+        </is>
+      </c>
+      <c r="E1746" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grupo de oração mãe da luz e grupo de jovens Sao José </t>
+        </is>
+      </c>
+      <c r="F1746" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>MARLI TEIXEIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="B1747" t="n">
+        <v>47</v>
+      </c>
+      <c r="C1747" t="inlineStr">
+        <is>
+          <t>Curitiba</t>
+        </is>
+      </c>
+      <c r="D1747" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1747" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1747" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ABNER DE PAULA MARTINS </t>
+        </is>
+      </c>
+      <c r="B1748" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1748" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1748" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida (Xingu) - SJP</t>
+        </is>
+      </c>
+      <c r="E1748" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Filhos de Maria </t>
+        </is>
+      </c>
+      <c r="F1748" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RICARDO TABORDA </t>
+        </is>
+      </c>
+      <c r="B1749" t="n">
+        <v>36</v>
+      </c>
+      <c r="C1749" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1749" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1749" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1749" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>ISABELA GARRE BIANCKE</t>
+        </is>
+      </c>
+      <c r="B1750" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1750" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1750" t="inlineStr">
+        <is>
+          <t>Santo Antônio - Lapa</t>
+        </is>
+      </c>
+      <c r="E1750" t="inlineStr">
+        <is>
+          <t>Coroinhas</t>
+        </is>
+      </c>
+      <c r="F1750" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TIAGO WILLIAM DA SILVA </t>
+        </is>
+      </c>
+      <c r="B1751" t="n">
+        <v>25</v>
+      </c>
+      <c r="C1751" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1751" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1751" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1751" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>FELIPE AUGUSTO ZOELLNER</t>
+        </is>
+      </c>
+      <c r="B1752" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1752" t="inlineStr">
+        <is>
+          <t>Agudos do Sul</t>
+        </is>
+      </c>
+      <c r="D1752" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1752" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1752" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUCAS HENRIQUE BURBELO VIANTE </t>
+        </is>
+      </c>
+      <c r="B1753" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1753" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1753" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1753" t="inlineStr">
+        <is>
+          <t>Nenhum grupo</t>
+        </is>
+      </c>
+      <c r="F1753" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FELIPE MESQUITA </t>
+        </is>
+      </c>
+      <c r="B1754" t="n">
+        <v>22</v>
+      </c>
+      <c r="C1754" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1754" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1754" t="inlineStr">
+        <is>
+          <t>TLC</t>
+        </is>
+      </c>
+      <c r="F1754" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>JUCIELE MARIA ZEPECHOUKA FRANCO</t>
+        </is>
+      </c>
+      <c r="B1755" t="n">
+        <v>41</v>
+      </c>
+      <c r="C1755" t="inlineStr">
+        <is>
+          <t>Mandirituba</t>
+        </is>
+      </c>
+      <c r="D1755" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus - Mandirituba</t>
+        </is>
+      </c>
+      <c r="E1755" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1755" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PEDRO HENRIQUE RODRIGUES </t>
+        </is>
+      </c>
+      <c r="B1756" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1756" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="D1756" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1756" t="inlineStr">
+        <is>
+          <t>Dom De Deus</t>
+        </is>
+      </c>
+      <c r="F1756" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="inlineStr">
+        <is>
+          <t>LOIZIANE VITÓRIA TURECK</t>
+        </is>
+      </c>
+      <c r="B1757" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1757" t="inlineStr">
+        <is>
+          <t>Piên</t>
+        </is>
+      </c>
+      <c r="D1757" t="inlineStr">
+        <is>
+          <t>Nossa Senhora das Graças - Piên</t>
+        </is>
+      </c>
+      <c r="E1757" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grupo servos de Maria </t>
+        </is>
+      </c>
+      <c r="F1757" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KETLYN POLIANA </t>
+        </is>
+      </c>
+      <c r="B1758" t="n">
+        <v>23</v>
+      </c>
+      <c r="C1758" t="inlineStr">
+        <is>
+          <t>Mandirituba</t>
+        </is>
+      </c>
+      <c r="D1758" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1758" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TLC </t>
+        </is>
+      </c>
+      <c r="F1758" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>EMILY SOFIA</t>
+        </is>
+      </c>
+      <c r="B1759" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1759" t="inlineStr">
+        <is>
+          <t>Fazenda Rio Grande</t>
+        </is>
+      </c>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>São Pedro - SJP</t>
+        </is>
+      </c>
+      <c r="E1759" t="inlineStr">
+        <is>
+          <t>pescadores da fe</t>
+        </is>
+      </c>
+      <c r="F1759" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WESLLEY C. TRIBKA  </t>
+        </is>
+      </c>
+      <c r="B1760" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1760" t="inlineStr">
+        <is>
+          <t>Quitandinha</t>
+        </is>
+      </c>
+      <c r="D1760" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus da Cana Verde - Quitandinha</t>
+        </is>
+      </c>
+      <c r="E1760" t="inlineStr">
+        <is>
+          <t>JUC</t>
+        </is>
+      </c>
+      <c r="F1760" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VITOR GABRIEL CORDEIRO DE BASTOS </t>
+        </is>
+      </c>
+      <c r="B1761" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1761" t="inlineStr">
+        <is>
+          <t>Mandirituba</t>
+        </is>
+      </c>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1761" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tlc mandirituba </t>
+        </is>
+      </c>
+      <c r="F1761" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NICOLLAS RIBEIRO FILIPAK </t>
+        </is>
+      </c>
+      <c r="B1762" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t>Quitandinha</t>
+        </is>
+      </c>
+      <c r="D1762" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus da Cana Verde - Quitandinha</t>
+        </is>
+      </c>
+      <c r="E1762" t="inlineStr">
+        <is>
+          <t>JUC</t>
+        </is>
+      </c>
+      <c r="F1762" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ILANA GABRIELLY IAREK  </t>
+        </is>
+      </c>
+      <c r="B1763" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1763" t="inlineStr">
+        <is>
+          <t>Quitandinha</t>
+        </is>
+      </c>
+      <c r="D1763" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus da Cana Verde - Quitandinha</t>
+        </is>
+      </c>
+      <c r="E1763" t="inlineStr">
+        <is>
+          <t>JUC</t>
+        </is>
+      </c>
+      <c r="F1763" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RAFAEL KOVALCZUK DA SILVEIRA </t>
+        </is>
+      </c>
+      <c r="B1764" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1764" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1764" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1764" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1764" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JULIA GABRIELLY DE SOUSA  </t>
+        </is>
+      </c>
+      <c r="B1765" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1765" t="inlineStr">
+        <is>
+          <t>Quitandinha</t>
+        </is>
+      </c>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus da Cana Verde - Quitandinha</t>
+        </is>
+      </c>
+      <c r="E1765" t="inlineStr">
+        <is>
+          <t>JUC</t>
+        </is>
+      </c>
+      <c r="F1765" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="inlineStr">
+        <is>
+          <t>BRUNA HELOÍSA MLENEK</t>
+        </is>
+      </c>
+      <c r="B1766" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1766" t="inlineStr">
+        <is>
+          <t>Quitandinha</t>
+        </is>
+      </c>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus da Cana Verde - Quitandinha</t>
+        </is>
+      </c>
+      <c r="E1766" t="inlineStr">
+        <is>
+          <t>JUC</t>
+        </is>
+      </c>
+      <c r="F1766" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="inlineStr">
+        <is>
+          <t>LUCAS PYRYCHOVSKI GEHLEN</t>
+        </is>
+      </c>
+      <c r="B1767" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1767" t="inlineStr">
+        <is>
+          <t>Quitandinha</t>
+        </is>
+      </c>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus da Cana Verde - Quitandinha</t>
+        </is>
+      </c>
+      <c r="E1767" t="inlineStr">
+        <is>
+          <t>JUC</t>
+        </is>
+      </c>
+      <c r="F1767" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="inlineStr">
+        <is>
+          <t>MARCELINO DE SOUZA</t>
+        </is>
+      </c>
+      <c r="B1768" t="n">
+        <v>40</v>
+      </c>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t>Araucária</t>
+        </is>
+      </c>
+      <c r="D1768" t="inlineStr">
+        <is>
+          <t>Nossa Senhora das Dores Araucária - Araucária</t>
+        </is>
+      </c>
+      <c r="E1768" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grupo de jovens Filhos do Espírito Santo </t>
+        </is>
+      </c>
+      <c r="F1768" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALESSANDRA AMADOR DE SOUZA </t>
+        </is>
+      </c>
+      <c r="B1769" t="n">
+        <v>38</v>
+      </c>
+      <c r="C1769" t="inlineStr">
+        <is>
+          <t>Araucária</t>
+        </is>
+      </c>
+      <c r="D1769" t="inlineStr">
+        <is>
+          <t>Nossa Senhora das Dores Araucária - Araucária</t>
+        </is>
+      </c>
+      <c r="E1769" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grupo de jovens Filhos do Espírito Santo </t>
+        </is>
+      </c>
+      <c r="F1769" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANGELINA DE SOUZA </t>
+        </is>
+      </c>
+      <c r="B1770" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1770" t="inlineStr">
+        <is>
+          <t>Araucária</t>
+        </is>
+      </c>
+      <c r="D1770" t="inlineStr">
+        <is>
+          <t>Nossa Senhora das Dores Araucária - Araucária</t>
+        </is>
+      </c>
+      <c r="E1770" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grupo de jovens Filhos do Espírito Santo </t>
+        </is>
+      </c>
+      <c r="F1770" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GUILHERME HENRIQUE CLAUDINO DA SILVA </t>
+        </is>
+      </c>
+      <c r="B1771" t="n">
+        <v>22</v>
+      </c>
+      <c r="C1771" t="inlineStr">
+        <is>
+          <t>Mandirituba</t>
+        </is>
+      </c>
+      <c r="D1771" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus - Mandirituba</t>
+        </is>
+      </c>
+      <c r="E1771" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Totuss Tuss Mariae </t>
+        </is>
+      </c>
+      <c r="F1771" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RAYANA NAYARA PIETRALA MULLER </t>
+        </is>
+      </c>
+      <c r="B1772" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1772" t="inlineStr">
+        <is>
+          <t>São Mateus do Sul</t>
+        </is>
+      </c>
+      <c r="D1772" t="inlineStr">
+        <is>
+          <t>Santos Reis - Lapa</t>
+        </is>
+      </c>
+      <c r="E1772" t="inlineStr">
+        <is>
+          <t xml:space="preserve">guerreiros dos santos reis </t>
+        </is>
+      </c>
+      <c r="F1772" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="inlineStr">
+        <is>
+          <t>THAMIRES APARECIDA DE SOUZA HENNING</t>
+        </is>
+      </c>
+      <c r="B1773" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1773" t="inlineStr">
+        <is>
+          <t>Araucária</t>
+        </is>
+      </c>
+      <c r="D1773" t="inlineStr">
+        <is>
+          <t>Nossa Senhora das Dores Araucária - Araucária</t>
+        </is>
+      </c>
+      <c r="E1773" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grupo de jovens Filhos do Espírito Santo </t>
+        </is>
+      </c>
+      <c r="F1773" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AUGUSTO RABEL MONTANARI NETO </t>
+        </is>
+      </c>
+      <c r="B1774" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1774" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1774" t="inlineStr">
+        <is>
+          <t>Santa Rita de Cássia - SJP</t>
+        </is>
+      </c>
+      <c r="E1774" t="inlineStr">
+        <is>
+          <t>Jubec</t>
+        </is>
+      </c>
+      <c r="F1774" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="inlineStr">
+        <is>
+          <t>SILVESTRE STANISLOSKI</t>
+        </is>
+      </c>
+      <c r="B1775" t="n">
+        <v>57</v>
+      </c>
+      <c r="C1775" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1775" t="inlineStr">
+        <is>
+          <t>Imaculada Conceição - Contenda - Catanduvas do Sul</t>
+        </is>
+      </c>
+      <c r="E1775" t="inlineStr">
+        <is>
+          <t>Jovens da imaculada</t>
+        </is>
+      </c>
+      <c r="F1775" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RAFAEL SILVA CARDOSO </t>
+        </is>
+      </c>
+      <c r="B1776" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1776" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1776" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1776" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1776" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANA GABRIELA FERREIRA DE OLIVEIRA </t>
+        </is>
+      </c>
+      <c r="B1777" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1777" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1777" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1777" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1777" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HELOISA HELENA BORA </t>
+        </is>
+      </c>
+      <c r="B1778" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1778" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1778" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1778" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1778" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EMANUELLY DE LIMA DOS ANJOS DE MELO </t>
+        </is>
+      </c>
+      <c r="B1779" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1779" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1779" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1779" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1779" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="inlineStr">
+        <is>
+          <t>MARIA ISABELY DE LIMA PICUSA</t>
+        </is>
+      </c>
+      <c r="B1780" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1780" t="inlineStr">
+        <is>
+          <t>Mandirituba</t>
+        </is>
+      </c>
+      <c r="D1780" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus - Mandirituba</t>
+        </is>
+      </c>
+      <c r="E1780" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Totuss Tuss Mariae </t>
+        </is>
+      </c>
+      <c r="F1780" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SAMUEL NOSSOL </t>
+        </is>
+      </c>
+      <c r="B1781" t="n">
+        <v>22</v>
+      </c>
+      <c r="C1781" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1781" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1781" t="inlineStr">
+        <is>
+          <t>TLC</t>
+        </is>
+      </c>
+      <c r="F1781" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VITORIA BARBOSA DOS SANTOS </t>
+        </is>
+      </c>
+      <c r="B1782" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1782" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1782" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1782" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1782" t="inlineStr">
+        <is>
+          <t>Pendente</t>
         </is>
       </c>
     </row>

--- a/lista-inscritos-dnj-2025-diocese-de-sao-jose-dos-pinhais-tratado.xlsx
+++ b/lista-inscritos-dnj-2025-diocese-de-sao-jose-dos-pinhais-tratado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1782"/>
+  <dimension ref="A1:F1837"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,12 +871,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Senhor Bom Jesus da Coluna - Rio Negro</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>TLC de Rio Negro</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -12562,7 +12562,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -18832,7 +18832,7 @@
         </is>
       </c>
       <c r="B614" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C614" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         </is>
       </c>
       <c r="B780" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C780" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         </is>
       </c>
       <c r="B804" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C804" t="inlineStr">
         <is>
@@ -27592,7 +27592,7 @@
         </is>
       </c>
       <c r="B906" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C906" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t xml:space="preserve">Confirmada </t>
+          <t xml:space="preserve">Cancelada </t>
         </is>
       </c>
     </row>
@@ -28432,7 +28432,7 @@
         </is>
       </c>
       <c r="B934" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C934" t="inlineStr">
         <is>
@@ -31342,7 +31342,7 @@
         </is>
       </c>
       <c r="B1031" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1031" t="inlineStr">
         <is>
@@ -33772,7 +33772,7 @@
         </is>
       </c>
       <c r="B1112" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1112" t="inlineStr">
         <is>
@@ -39352,7 +39352,7 @@
         </is>
       </c>
       <c r="B1298" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1298" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         </is>
       </c>
       <c r="B1329" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1329" t="inlineStr">
         <is>
@@ -41111,7 +41111,7 @@
       </c>
       <c r="F1356" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -41411,7 +41411,7 @@
       </c>
       <c r="F1366" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -41471,7 +41471,7 @@
       </c>
       <c r="F1368" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -41741,7 +41741,7 @@
       </c>
       <c r="F1377" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -45941,7 +45941,7 @@
       </c>
       <c r="F1517" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46001,7 +46001,7 @@
       </c>
       <c r="F1519" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46031,7 +46031,7 @@
       </c>
       <c r="F1520" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46061,7 +46061,7 @@
       </c>
       <c r="F1521" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46091,7 +46091,7 @@
       </c>
       <c r="F1522" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46121,7 +46121,7 @@
       </c>
       <c r="F1523" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46151,7 +46151,7 @@
       </c>
       <c r="F1524" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46181,7 +46181,7 @@
       </c>
       <c r="F1525" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46211,7 +46211,7 @@
       </c>
       <c r="F1526" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46241,7 +46241,7 @@
       </c>
       <c r="F1527" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46271,7 +46271,7 @@
       </c>
       <c r="F1528" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46301,7 +46301,7 @@
       </c>
       <c r="F1529" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46331,7 +46331,7 @@
       </c>
       <c r="F1530" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46361,7 +46361,7 @@
       </c>
       <c r="F1531" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46391,7 +46391,7 @@
       </c>
       <c r="F1532" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46421,7 +46421,7 @@
       </c>
       <c r="F1533" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46451,7 +46451,7 @@
       </c>
       <c r="F1534" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46481,7 +46481,7 @@
       </c>
       <c r="F1535" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46511,7 +46511,7 @@
       </c>
       <c r="F1536" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46541,7 +46541,7 @@
       </c>
       <c r="F1537" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46571,7 +46571,7 @@
       </c>
       <c r="F1538" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46631,7 +46631,7 @@
       </c>
       <c r="F1540" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46661,7 +46661,7 @@
       </c>
       <c r="F1541" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46721,7 +46721,7 @@
       </c>
       <c r="F1543" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46781,7 +46781,7 @@
       </c>
       <c r="F1545" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46811,7 +46811,7 @@
       </c>
       <c r="F1546" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46841,7 +46841,7 @@
       </c>
       <c r="F1547" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46871,7 +46871,7 @@
       </c>
       <c r="F1548" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46901,7 +46901,7 @@
       </c>
       <c r="F1549" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46931,7 +46931,7 @@
       </c>
       <c r="F1550" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46961,7 +46961,7 @@
       </c>
       <c r="F1551" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -46991,7 +46991,7 @@
       </c>
       <c r="F1552" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -47051,7 +47051,7 @@
       </c>
       <c r="F1554" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -47081,7 +47081,7 @@
       </c>
       <c r="F1555" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -47141,7 +47141,7 @@
       </c>
       <c r="F1557" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -47201,7 +47201,7 @@
       </c>
       <c r="F1559" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -47231,7 +47231,7 @@
       </c>
       <c r="F1560" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -47261,7 +47261,7 @@
       </c>
       <c r="F1561" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -47291,7 +47291,7 @@
       </c>
       <c r="F1562" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -47381,7 +47381,7 @@
       </c>
       <c r="F1565" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -47411,7 +47411,7 @@
       </c>
       <c r="F1566" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -47441,7 +47441,7 @@
       </c>
       <c r="F1567" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -47471,7 +47471,7 @@
       </c>
       <c r="F1568" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -47501,7 +47501,7 @@
       </c>
       <c r="F1569" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -47542,7 +47542,7 @@
         </is>
       </c>
       <c r="B1571" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
@@ -48101,7 +48101,7 @@
       </c>
       <c r="F1589" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -48131,7 +48131,7 @@
       </c>
       <c r="F1590" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -48161,7 +48161,7 @@
       </c>
       <c r="F1591" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -48191,7 +48191,7 @@
       </c>
       <c r="F1592" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -48221,7 +48221,7 @@
       </c>
       <c r="F1593" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -48251,7 +48251,7 @@
       </c>
       <c r="F1594" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -48281,7 +48281,7 @@
       </c>
       <c r="F1595" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -48311,7 +48311,7 @@
       </c>
       <c r="F1596" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -48341,7 +48341,7 @@
       </c>
       <c r="F1597" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -48371,7 +48371,7 @@
       </c>
       <c r="F1598" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -48401,7 +48401,7 @@
       </c>
       <c r="F1599" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -48461,7 +48461,7 @@
       </c>
       <c r="F1601" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -48491,7 +48491,7 @@
       </c>
       <c r="F1602" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -48581,7 +48581,7 @@
       </c>
       <c r="F1605" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -48641,7 +48641,7 @@
       </c>
       <c r="F1607" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -51851,7 +51851,7 @@
       </c>
       <c r="F1714" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -53242,7 +53242,7 @@
         </is>
       </c>
       <c r="B1761" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1761" t="inlineStr">
         <is>
@@ -53711,7 +53711,7 @@
       </c>
       <c r="F1776" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -53741,7 +53741,7 @@
       </c>
       <c r="F1777" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -53771,7 +53771,7 @@
       </c>
       <c r="F1778" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -53801,7 +53801,7 @@
       </c>
       <c r="F1779" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -53831,7 +53831,7 @@
       </c>
       <c r="F1780" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendente </t>
+          <t xml:space="preserve">Confirmada </t>
         </is>
       </c>
     </row>
@@ -53891,7 +53891,1657 @@
       </c>
       <c r="F1782" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VINICIUS JACQUES DE LIMA </t>
+        </is>
+      </c>
+      <c r="B1783" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1783" t="inlineStr">
+        <is>
+          <t>Agudos do Sul</t>
+        </is>
+      </c>
+      <c r="D1783" t="inlineStr">
+        <is>
+          <t>Nossa Senhora da Conceição - Agudos do Sul</t>
+        </is>
+      </c>
+      <c r="E1783" t="inlineStr">
+        <is>
+          <t>Tlc</t>
+        </is>
+      </c>
+      <c r="F1783" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CRISTIANO GROSSKOPF </t>
+        </is>
+      </c>
+      <c r="B1784" t="n">
+        <v>49</v>
+      </c>
+      <c r="C1784" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1784" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1784" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TLC </t>
+        </is>
+      </c>
+      <c r="F1784" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="inlineStr">
+        <is>
+          <t>ERLEI MARIA TEIDER GREGOSKI</t>
+        </is>
+      </c>
+      <c r="B1785" t="n">
+        <v>58</v>
+      </c>
+      <c r="C1785" t="inlineStr">
+        <is>
+          <t>Lapa</t>
+        </is>
+      </c>
+      <c r="D1785" t="inlineStr">
+        <is>
+          <t>Imaculada Conceição - Lapa - Mariental</t>
+        </is>
+      </c>
+      <c r="E1785" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1785" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GIOVANNI CEZARIO BAIAN </t>
+        </is>
+      </c>
+      <c r="B1786" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1786" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1786" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Rainha da Paz - SJP</t>
+        </is>
+      </c>
+      <c r="E1786" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1786" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EDUARDA GISLAINE WOJCIK </t>
+        </is>
+      </c>
+      <c r="B1787" t="n">
+        <v>25</v>
+      </c>
+      <c r="C1787" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1787" t="inlineStr">
+        <is>
+          <t>São Sebastião  - SJP</t>
+        </is>
+      </c>
+      <c r="E1787" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pescadores da fé </t>
+        </is>
+      </c>
+      <c r="F1787" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GABRIEL MOREIRA DE JESUS </t>
+        </is>
+      </c>
+      <c r="B1788" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1788" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1788" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1788" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1788" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="inlineStr">
+        <is>
+          <t>GUILHERME A. DE MARAFIGO</t>
+        </is>
+      </c>
+      <c r="B1789" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1789" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1789" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1789" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1789" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="inlineStr">
+        <is>
+          <t xml:space="preserve">YASMIM GABRIELE NEPOMOCENO LOPES </t>
+        </is>
+      </c>
+      <c r="B1790" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1790" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1790" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1790" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1790" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KYON RENE FIORI OLIVEIRA </t>
+        </is>
+      </c>
+      <c r="B1791" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1791" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1791" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1791" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PASTORAL JUVENIL </t>
+        </is>
+      </c>
+      <c r="F1791" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOICE APARECIDA SUREK </t>
+        </is>
+      </c>
+      <c r="B1792" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1792" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1792" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1792" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1792" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAURI PAULINHO MUSIAL </t>
+        </is>
+      </c>
+      <c r="B1793" t="n">
+        <v>45</v>
+      </c>
+      <c r="C1793" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1793" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1793" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1793" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RENATA CRISTINA FARIA DOS SANTOS </t>
+        </is>
+      </c>
+      <c r="B1794" t="n">
+        <v>45</v>
+      </c>
+      <c r="C1794" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1794" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1794" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1794" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOICELI APARECIDA P. SEMES </t>
+        </is>
+      </c>
+      <c r="B1795" t="n">
+        <v>23</v>
+      </c>
+      <c r="C1795" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1795" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1795" t="inlineStr">
+        <is>
+          <t>PASTORAL JUVENIL</t>
+        </is>
+      </c>
+      <c r="F1795" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMANDA CASSIANE BORA </t>
+        </is>
+      </c>
+      <c r="B1796" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1796" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1796" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1796" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pastoral juvenil </t>
+        </is>
+      </c>
+      <c r="F1796" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="inlineStr">
+        <is>
+          <t>MÁRCIA DÁS GRAÇAS SANTANA DÁ SILVA</t>
+        </is>
+      </c>
+      <c r="B1797" t="n">
+        <v>36</v>
+      </c>
+      <c r="C1797" t="inlineStr">
+        <is>
+          <t>Contenda</t>
+        </is>
+      </c>
+      <c r="D1797" t="inlineStr">
+        <is>
+          <t>São João Batista - Contenda</t>
+        </is>
+      </c>
+      <c r="E1797" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1797" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="inlineStr">
+        <is>
+          <t>JOSIEL ELISANDRO KNOPEK</t>
+        </is>
+      </c>
+      <c r="B1798" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1798" t="inlineStr">
+        <is>
+          <t>Piên</t>
+        </is>
+      </c>
+      <c r="D1798" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1798" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juventude </t>
+        </is>
+      </c>
+      <c r="F1798" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="inlineStr">
+        <is>
+          <t>NICOLE MENDES</t>
+        </is>
+      </c>
+      <c r="B1799" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1799" t="inlineStr">
+        <is>
+          <t>Quitandinha</t>
+        </is>
+      </c>
+      <c r="D1799" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus da Cana Verde - Quitandinha</t>
+        </is>
+      </c>
+      <c r="E1799" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUC </t>
+        </is>
+      </c>
+      <c r="F1799" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MATHEUS  EDUARDO SENN DE LIMA </t>
+        </is>
+      </c>
+      <c r="B1800" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1800" t="inlineStr">
+        <is>
+          <t>Piên</t>
+        </is>
+      </c>
+      <c r="D1800" t="inlineStr">
+        <is>
+          <t>Nossa Senhora das Graças - Piên</t>
+        </is>
+      </c>
+      <c r="E1800" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juventude </t>
+        </is>
+      </c>
+      <c r="F1800" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t>JULIA DE OLIVEIRA GONÇALVES</t>
+        </is>
+      </c>
+      <c r="B1801" t="n">
+        <v>23</v>
+      </c>
+      <c r="C1801" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="D1801" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1801" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1801" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>DÉBORA STALL</t>
+        </is>
+      </c>
+      <c r="B1802" t="n">
+        <v>22</v>
+      </c>
+      <c r="C1802" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1802" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus da Coluna - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1802" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cursilho </t>
+        </is>
+      </c>
+      <c r="F1802" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="inlineStr">
+        <is>
+          <t>FABRICIO CAVALI DE ALMEIDA</t>
+        </is>
+      </c>
+      <c r="B1803" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1803" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1803" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus - SJP</t>
+        </is>
+      </c>
+      <c r="E1803" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pegadas </t>
+        </is>
+      </c>
+      <c r="F1803" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="inlineStr">
+        <is>
+          <t>MATHEUS DA SILVA</t>
+        </is>
+      </c>
+      <c r="B1804" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1804" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1804" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1804" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1804" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="inlineStr">
+        <is>
+          <t>BRUNA JOSELY DE SOUZA SANTOS</t>
+        </is>
+      </c>
+      <c r="B1805" t="n">
+        <v>29</v>
+      </c>
+      <c r="C1805" t="inlineStr">
+        <is>
+          <t>Fazenda Rio Grande</t>
+        </is>
+      </c>
+      <c r="D1805" t="inlineStr">
+        <is>
+          <t>São Sebastião  - SJP</t>
+        </is>
+      </c>
+      <c r="E1805" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sementes de Assis </t>
+        </is>
+      </c>
+      <c r="F1805" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARIANE SOARES SCHIMINGOSKI </t>
+        </is>
+      </c>
+      <c r="B1806" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1806" t="inlineStr">
+        <is>
+          <t>Piraquara</t>
+        </is>
+      </c>
+      <c r="D1806" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus dos Passos - Piraquara</t>
+        </is>
+      </c>
+      <c r="E1806" t="inlineStr">
+        <is>
+          <t>Bom jesus dos passos</t>
+        </is>
+      </c>
+      <c r="F1806" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="inlineStr">
+        <is>
+          <t>LUCIANO MIGUEL</t>
+        </is>
+      </c>
+      <c r="B1807" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1807" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1807" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1807" t="inlineStr">
+        <is>
+          <t>Mcc</t>
+        </is>
+      </c>
+      <c r="F1807" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JACQUELINE MORRETES TERRES </t>
+        </is>
+      </c>
+      <c r="B1808" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1808" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1808" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1808" t="inlineStr">
+        <is>
+          <t>Grupo de jovens (UFC) e MCC</t>
+        </is>
+      </c>
+      <c r="F1808" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EMERSON SCHIMINGOSKI </t>
+        </is>
+      </c>
+      <c r="B1809" t="n">
+        <v>40</v>
+      </c>
+      <c r="C1809" t="inlineStr">
+        <is>
+          <t>Piraquara</t>
+        </is>
+      </c>
+      <c r="D1809" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus dos Passos - Piraquara</t>
+        </is>
+      </c>
+      <c r="E1809" t="inlineStr">
+        <is>
+          <t>Bom jesus dos passos</t>
+        </is>
+      </c>
+      <c r="F1809" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="inlineStr">
+        <is>
+          <t>EDUARDO MOTA</t>
+        </is>
+      </c>
+      <c r="B1810" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1810" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1810" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1810" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1810" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ELYAD MUNIK SCHIMINGOSKI </t>
+        </is>
+      </c>
+      <c r="B1811" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1811" t="inlineStr">
+        <is>
+          <t>Piraquara</t>
+        </is>
+      </c>
+      <c r="D1811" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus dos Passos - Piraquara</t>
+        </is>
+      </c>
+      <c r="E1811" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bom jesus dos passos </t>
+        </is>
+      </c>
+      <c r="F1811" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARIA EDUARDA GUIMARÃES DA SILVA </t>
+        </is>
+      </c>
+      <c r="B1812" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1812" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1812" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1812" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1812" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EMERIANE MANUELLY SCHIMINGOSKI </t>
+        </is>
+      </c>
+      <c r="B1813" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1813" t="inlineStr">
+        <is>
+          <t>Piraquara</t>
+        </is>
+      </c>
+      <c r="D1813" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus dos Passos - Piraquara</t>
+        </is>
+      </c>
+      <c r="E1813" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bom jesus dos passos </t>
+        </is>
+      </c>
+      <c r="F1813" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUZANA VALÉRIO </t>
+        </is>
+      </c>
+      <c r="B1814" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1814" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1814" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1814" t="inlineStr">
+        <is>
+          <t>TLC</t>
+        </is>
+      </c>
+      <c r="F1814" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="inlineStr">
+        <is>
+          <t>YASMIN PAULUK</t>
+        </is>
+      </c>
+      <c r="B1815" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1815" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="D1815" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1815" t="inlineStr">
+        <is>
+          <t>DNJ</t>
+        </is>
+      </c>
+      <c r="F1815" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBSON HEINZ JUNIOR </t>
+        </is>
+      </c>
+      <c r="B1816" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1816" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1816" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1816" t="inlineStr">
+        <is>
+          <t>Peregrino do Amor</t>
+        </is>
+      </c>
+      <c r="F1816" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="inlineStr">
+        <is>
+          <t>JOSIANE VICHINHESKI PRESTES</t>
+        </is>
+      </c>
+      <c r="B1817" t="n">
+        <v>50</v>
+      </c>
+      <c r="C1817" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1817" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1817" t="inlineStr">
+        <is>
+          <t>DOM DE DEUS</t>
+        </is>
+      </c>
+      <c r="F1817" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="inlineStr">
+        <is>
+          <t>TANIA RAQUEL STELMATCHUK</t>
+        </is>
+      </c>
+      <c r="B1818" t="n">
+        <v>48</v>
+      </c>
+      <c r="C1818" t="inlineStr">
+        <is>
+          <t>Fazenda Rio Grande</t>
+        </is>
+      </c>
+      <c r="D1818" t="inlineStr">
+        <is>
+          <t>Nossa Senhora da Luz - Fazenda Rio Grande</t>
+        </is>
+      </c>
+      <c r="E1818" t="inlineStr">
+        <is>
+          <t>Asjc</t>
+        </is>
+      </c>
+      <c r="F1818" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="inlineStr">
+        <is>
+          <t>CHARLES MEDINA</t>
+        </is>
+      </c>
+      <c r="B1819" t="n">
+        <v>32</v>
+      </c>
+      <c r="C1819" t="inlineStr">
+        <is>
+          <t>Araucária</t>
+        </is>
+      </c>
+      <c r="D1819" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1819" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1819" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="inlineStr">
+        <is>
+          <t>JOSIEL SEBASTIÃO PRESTES</t>
+        </is>
+      </c>
+      <c r="B1820" t="n">
+        <v>50</v>
+      </c>
+      <c r="C1820" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1820" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1820" t="inlineStr">
+        <is>
+          <t>DOM DE DEUS</t>
+        </is>
+      </c>
+      <c r="F1820" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="inlineStr">
+        <is>
+          <t>SILMARA DE JESUS NUNES</t>
+        </is>
+      </c>
+      <c r="B1821" t="n">
+        <v>42</v>
+      </c>
+      <c r="C1821" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1821" t="inlineStr">
+        <is>
+          <t>Nossa Senhora de Fátima - SJP</t>
+        </is>
+      </c>
+      <c r="E1821" t="inlineStr">
+        <is>
+          <t>JC ACUTIS</t>
+        </is>
+      </c>
+      <c r="F1821" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendente </t>
+        </is>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="inlineStr">
+        <is>
+          <t>PEDRO DAVI VICHINHESKI PRESTES</t>
+        </is>
+      </c>
+      <c r="B1822" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1822" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1822" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1822" t="inlineStr">
+        <is>
+          <t>DOM DE DEUS</t>
+        </is>
+      </c>
+      <c r="F1822" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="inlineStr">
+        <is>
+          <t>MAYARA MIRANDA DE CARVALHO</t>
+        </is>
+      </c>
+      <c r="B1823" t="n">
+        <v>29</v>
+      </c>
+      <c r="C1823" t="inlineStr">
+        <is>
+          <t>Fazenda Rio Grande</t>
+        </is>
+      </c>
+      <c r="D1823" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1823" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1823" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HYAN RODRIGO GENOVEZZI ESPOSITO </t>
+        </is>
+      </c>
+      <c r="B1824" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1824" t="inlineStr">
+        <is>
+          <t>Piraquara</t>
+        </is>
+      </c>
+      <c r="D1824" t="inlineStr">
+        <is>
+          <t>Senhor Bom Jesus dos Passos - Piraquara</t>
+        </is>
+      </c>
+      <c r="E1824" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grupo de oração jovens </t>
+        </is>
+      </c>
+      <c r="F1824" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="inlineStr">
+        <is>
+          <t>LUCAS ADRIANO DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="B1825" t="n">
+        <v>28</v>
+      </c>
+      <c r="C1825" t="inlineStr">
+        <is>
+          <t>Fazenda Rio Grande</t>
+        </is>
+      </c>
+      <c r="D1825" t="inlineStr">
+        <is>
+          <t>São Sebastião  - SJP</t>
+        </is>
+      </c>
+      <c r="E1825" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sementes de Assis </t>
+        </is>
+      </c>
+      <c r="F1825" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="inlineStr">
+        <is>
+          <t>KAUANA URBANSKI DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="B1826" t="n">
+        <v>25</v>
+      </c>
+      <c r="C1826" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1826" t="inlineStr">
+        <is>
+          <t>Nossa Senhora de Fátima - SJP</t>
+        </is>
+      </c>
+      <c r="E1826" t="inlineStr">
+        <is>
+          <t>JC ACUTIS</t>
+        </is>
+      </c>
+      <c r="F1826" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JULIA GROCHKA LICHESKI </t>
+        </is>
+      </c>
+      <c r="B1827" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1827" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D1827" t="inlineStr">
+        <is>
+          <t>São Sebastião  - SJP</t>
+        </is>
+      </c>
+      <c r="E1827" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cerimoniários </t>
+        </is>
+      </c>
+      <c r="F1827" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NICOLAS EMANUEL SOARES </t>
+        </is>
+      </c>
+      <c r="B1828" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1828" t="inlineStr">
+        <is>
+          <t>Piên</t>
+        </is>
+      </c>
+      <c r="D1828" t="inlineStr">
+        <is>
+          <t>Nossa Senhora das Graças - Piên</t>
+        </is>
+      </c>
+      <c r="E1828" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juventude pien </t>
+        </is>
+      </c>
+      <c r="F1828" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RAFAEL DIEGO KUNGEL </t>
+        </is>
+      </c>
+      <c r="B1829" t="n">
+        <v>33</v>
+      </c>
+      <c r="C1829" t="inlineStr">
+        <is>
+          <t>Fazenda Rio Grande</t>
+        </is>
+      </c>
+      <c r="D1829" t="inlineStr">
+        <is>
+          <t>São Sebastião  - SJP</t>
+        </is>
+      </c>
+      <c r="E1829" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sementes de Assis </t>
+        </is>
+      </c>
+      <c r="F1829" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="inlineStr">
+        <is>
+          <t>LISANDRA DAIANA POTIER</t>
+        </is>
+      </c>
+      <c r="B1830" t="n">
+        <v>27</v>
+      </c>
+      <c r="C1830" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1830" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida - Rio Negro</t>
+        </is>
+      </c>
+      <c r="E1830" t="inlineStr">
+        <is>
+          <t>DOM DE DEUS</t>
+        </is>
+      </c>
+      <c r="F1830" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="inlineStr">
+        <is>
+          <t>TIFFANY APARECIDA SANTOS</t>
+        </is>
+      </c>
+      <c r="B1831" t="n">
+        <v>23</v>
+      </c>
+      <c r="C1831" t="inlineStr">
+        <is>
+          <t>Fazenda Rio Grande</t>
+        </is>
+      </c>
+      <c r="D1831" t="inlineStr">
+        <is>
+          <t>São Sebastião  - SJP</t>
+        </is>
+      </c>
+      <c r="E1831" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sementes de Assis </t>
+        </is>
+      </c>
+      <c r="F1831" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="inlineStr">
+        <is>
+          <t>CAIO HENRIQUE SANTOS CABRAL</t>
+        </is>
+      </c>
+      <c r="B1832" t="n">
+        <v>25</v>
+      </c>
+      <c r="C1832" t="inlineStr">
+        <is>
+          <t>Fazenda Rio Grande</t>
+        </is>
+      </c>
+      <c r="D1832" t="inlineStr">
+        <is>
+          <t>São Sebastião  - SJP</t>
+        </is>
+      </c>
+      <c r="E1832" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sementes de Assis </t>
+        </is>
+      </c>
+      <c r="F1832" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="inlineStr">
+        <is>
+          <t>MATEUS MATIAS DA SILVA RAMOS</t>
+        </is>
+      </c>
+      <c r="B1833" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1833" t="inlineStr">
+        <is>
+          <t>Fazenda Rio Grande</t>
+        </is>
+      </c>
+      <c r="D1833" t="inlineStr">
+        <is>
+          <t>São Sebastião  - SJP</t>
+        </is>
+      </c>
+      <c r="E1833" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sementes de Assis </t>
+        </is>
+      </c>
+      <c r="F1833" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="inlineStr">
+        <is>
+          <t>SABRINA BEIL</t>
+        </is>
+      </c>
+      <c r="B1834" t="n">
+        <v>22</v>
+      </c>
+      <c r="C1834" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1834" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1834" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1834" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EVA GRECHAKI LOPES </t>
+        </is>
+      </c>
+      <c r="B1835" t="n">
+        <v>54</v>
+      </c>
+      <c r="C1835" t="inlineStr">
+        <is>
+          <t>Fazenda Rio Grande</t>
+        </is>
+      </c>
+      <c r="D1835" t="inlineStr">
+        <is>
+          <t>Nossa Senhora da Luz - Fazenda Rio Grande</t>
+        </is>
+      </c>
+      <c r="E1835" t="inlineStr">
+        <is>
+          <t>ASJC (adolescentes seguidores de Jesus Cristo)</t>
+        </is>
+      </c>
+      <c r="F1835" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOSÉ LUCAS SIQUEIRA GABARDO DE LIMA </t>
+        </is>
+      </c>
+      <c r="B1836" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1836" t="inlineStr">
+        <is>
+          <t>Piên</t>
+        </is>
+      </c>
+      <c r="D1836" t="inlineStr">
+        <is>
+          <t>Nossa Senhora das Graças - Piên</t>
+        </is>
+      </c>
+      <c r="E1836" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1836" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confirmada </t>
+        </is>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="inlineStr">
+        <is>
+          <t>DAVID DO NASCIMENTO TRAIN</t>
+        </is>
+      </c>
+      <c r="B1837" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1837" t="inlineStr">
+        <is>
+          <t>Rio Negro</t>
+        </is>
+      </c>
+      <c r="D1837" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E1837" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F1837" t="inlineStr">
+        <is>
+          <t>Confirmada</t>
         </is>
       </c>
     </row>
